--- a/reversed_tweets.xlsx
+++ b/reversed_tweets.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="270">
   <si>
     <t>Texto del tweet</t>
   </si>
@@ -23,6 +23,250 @@
   </si>
   <si>
     <t>Fecha</t>
+  </si>
+  <si>
+    <t>RT @WHO: "If countries rush to lift restrictions quickly, the #coronavirus could resurge &amp;amp; the economic impact could be more severe &amp;amp; prolo…</t>
+  </si>
+  <si>
+    <t>@WHO covered up for China. https://t.co/CJtNx1T6q7</t>
+  </si>
+  <si>
+    <t>@WHO @Ofcom @WHO_Europe @pahowho @WHOEMRO @WHOSEARO @WHOWPRO @WHOAFRO 5 G is indiscriminate, it penetrates walls wi… https://t.co/KkbSESpjYD</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros https://t.co/InRSJBnNIH</t>
+  </si>
+  <si>
+    <t>RT @WHO: Media briefing on #COVID19 with @DrTedros. #coronavirus https://t.co/ZKy3OjKgBl</t>
+  </si>
+  <si>
+    <t>@WHO @WHOEMRO @WHO_Europe @WHOWPRO @WHOAFRO @pahowho @WHOSEARO @hvpatuck World seeks answers; @WHO doles out Chines… https://t.co/vVBUL9zUvK</t>
+  </si>
+  <si>
+    <t>@WHO  @DOHgovph  hanggang kailan pa makahanap ng vacinne? matalino nman kayo bat ang tagal pa?</t>
+  </si>
+  <si>
+    <t>RT @WHO: It’s #WorldHealthDay!
+Today, we celebrate the work of nurses &amp;amp; midwives by showing our appreciation for their bravery, courage &amp;amp;…</t>
+  </si>
+  <si>
+    <t>@WHO  #ChinaMustExplain  #ChinaLiedAndPeopleDied  #ChinaLiesPeopleDie  #China  #ChinaMustPay  #ChinaVirus</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros Please, resign now ... Mr. dishonest 🤔😠🇹🇷 Chinazi infects the world with @WHO @DrTedros</t>
+  </si>
+  <si>
+    <t>@WHO @WHOEMRO @WHO_Europe @WHOWPRO @WHOAFRO @pahowho @WHOSEARO @hvpatuck https://t.co/x1DfjCBsNl</t>
+  </si>
+  <si>
+    <t>RT @WHO_Europe: #COVID19 virus causes some flu-like symptoms. It’s important to remember not to take antibiotics to treat #COVID19. They wo…</t>
+  </si>
+  <si>
+    <t>RT @WHO: Kids, meet Ario - a kind, orange dragon with a horn like a unicorn, who will introduce you to #COVID19 and help you understand how…</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros God will pay u back dr tedros no matter what</t>
+  </si>
+  <si>
+    <t>RT @WHO: "There is no black or white answer, and no silver bullet. Masks alone cannot stop the #COVID19 pandemic. Countries must continue t…</t>
+  </si>
+  <si>
+    <t>RT @WHO: Preliminary investigations conducted by the Chinese authorities have found no clear evidence of human-to-human transmission of the…</t>
+  </si>
+  <si>
+    <t>@WHO @DrMikeRyan @DrTedros Adan Meeca
+https://t.co/m0Xg0JT5I6
+Adan Medina
+https://t.co/BJETeJR8fx
+Short clips… https://t.co/MomsAkfsjB</t>
+  </si>
+  <si>
+    <t>@WHO @Ofcom @WHO_Europe @pahowho @WHOEMRO @WHOSEARO @WHOWPRO @WHOAFRO Dear Ofcom World Health Organization
+I have a… https://t.co/xaHNUTKrne</t>
+  </si>
+  <si>
+    <t>RT @WHO: 📚 A new story book “My Hero is You, How kids can fight COVID-19!” - aimed at children aged 6-11 years old, is released today to he…</t>
+  </si>
+  <si>
+    <t>@WHO @POTUS @realDonaldTrump @PMOIndia 
+Donald Trump really you are super , except you no one in the world  have gu… https://t.co/LoggKuMTrt</t>
+  </si>
+  <si>
+    <t>RT @WHO: "We activated our global expert networks to tap the world’s leading epidemiologists, clinicians, social-scientists, statisticians,…</t>
+  </si>
+  <si>
+    <t>RT @OPSOMSPeru: Info para cuidadores de personas con sospecha o confirmación de #COVID19
+#LavaTusManos frecuentemente
+Asegúrate que la per…</t>
+  </si>
+  <si>
+    <t>@WHO Resign, the world health organization is spreading Chinese propaganda</t>
+  </si>
+  <si>
+    <t>@WHO You should shut the fuck up you government baboons!! You have no idea what you people say. You're terrorists a… https://t.co/fBOKzpMxfr</t>
+  </si>
+  <si>
+    <t>@WHO everybody their needs to resign. That Chinese cash is better than saving lives. #fucktheccp</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros WHO helped to spread the CCP virus?</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros https://t.co/VV7d4vWQfZ #WHO do the right thing #TedrosMustStepDown . #UN should respect the growing… https://t.co/8m5MsZucFE</t>
+  </si>
+  <si>
+    <t>RT @WHO: Grab your book and watch @HowardDonald reading “My Hero is You, How kids can fight #COVID19!”
+📚 https://t.co/L23wN2LZwB
+#coronav…</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros https://t.co/3Sy0Ey1ZFO</t>
+  </si>
+  <si>
+    <t>RT @DrTedros: .@WHO will be releasing an updated strategy &amp;amp; revised Strategic Preparedness &amp;amp; Response Plan in the next few days, with an es…</t>
+  </si>
+  <si>
+    <t>@WHO stop bullying Taiwan!</t>
+  </si>
+  <si>
+    <t>@WHO @UNICEF @UN @hrw @HRC @OIC_OCI @IFJGlobal @ICJ_org @CIJ_ICJ 
+Below thread will give you the details of communa… https://t.co/EW5SXPYpqe</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros Wondering what real mandate of WHO is esp during covid-19 pandemic?</t>
+  </si>
+  <si>
+    <t>@WHO Body Bags? Body Bags? What the devil are you taking about?</t>
+  </si>
+  <si>
+    <t>@WHO https://t.co/QZcFKVYcky</t>
+  </si>
+  <si>
+    <t>@WHO @HowardDonald https://t.co/Ovnq3FYKX7</t>
+  </si>
+  <si>
+    <t>@WHO @WHOAFRO @WHOEMRO @WHO_Europe @WHOSEARO @WHOWPRO @pahowho @hvpatuck STOP SPREADING THE FEAR, watch this now!!!… https://t.co/cR9sCtnHiO</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros Adan Meeca
+https://t.co/m0Xg0JT5I6
+Adan Medina
+https://t.co/BJETeJR8fx
+Short clips… https://t.co/kO57KAuCqt</t>
+  </si>
+  <si>
+    <t>@WHO @WHOEMRO @pahowho @WHOAFRO @WHOSEARO @WHO_Europe @WHOWPRO @hvpatuck STOP SPREADING THE FEAR, watch this now!!!… https://t.co/WHzHfd1t6h</t>
+  </si>
+  <si>
+    <t>@WHO @WHOEMRO @WHO_Europe @WHOWPRO @WHOAFRO @pahowho @WHOSEARO @hvpatuck STOP SPREADING THE FEAR, watch this now!!!… https://t.co/UytoqwSU4M</t>
+  </si>
+  <si>
+    <t>@WHO STOP SPREADING THE FEAR, watch this now!!!
+This "pandemic" is a fraud and a crime against humanity!!
+Have you… https://t.co/Sw1VpIDpGS</t>
+  </si>
+  <si>
+    <t>@WHO @WHOThailand @WHOSEARO @WHOWPRO This organization's leader thinks that he is above criticism because of his skin color. What a joke.</t>
+  </si>
+  <si>
+    <t>@WHO @HowardDonald STOP SPREADING THE FEAR, watch this now!!!
+This "pandemic" is a fraud and a crime against humani… https://t.co/dV2GkqH9Ma</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros STOP SPREADING THE FEAR, watch this now!!!
+This "pandemic" is a fraud and a crime against humanity!!… https://t.co/TytCcWiyVn</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros I had the feeling that you don't care! And alas, you confirmed it! You said it!</t>
+  </si>
+  <si>
+    <t>@WHO As we read books, will we ignore the situation of Africans in China?</t>
+  </si>
+  <si>
+    <t>RT @WHOWPRO: You can help protect yourself and others from #COVID19 by being:  
+- Informed 
+- Prepared 
+- Smart 
+- Safe 
+Get more informati…</t>
+  </si>
+  <si>
+    <t>@WHO most corruption Institute</t>
+  </si>
+  <si>
+    <t>@WHO your big boss just said he doesn't care, and its all true! He doest care, heis pocket has either been lined up… https://t.co/v3zw4WRe6a</t>
+  </si>
+  <si>
+    <t>RT @WHO: "We play games, cook, spend time in our garden and have meals together. My brothers and I touch our toes and dance. We read books…</t>
+  </si>
+  <si>
+    <t>RT @WHO: WHO will have a special guest at today's #COVID19 press conference: @ladygaga will be joining us to announce the 
+One World: #Tog…</t>
+  </si>
+  <si>
+    <t>RT @WHO: “There are many heroes keeping people safe from the #coronavirus, like wonderful doctors and nurses. But you remind me that we can…</t>
+  </si>
+  <si>
+    <t>RT @WHO: The book “My Hero is You, How kids can fight #COVID19!” will be widely translated, with six language versions released today and m…</t>
+  </si>
+  <si>
+    <t>@WHO @IndianMedAssn 
+We need to identi magnetic property f corona virus, and gravitational property, and in which f… https://t.co/x4PkSNCzFY</t>
+  </si>
+  <si>
+    <t>@WHO @HowardDonald Chinese people and Chinese virus stand with #WHO</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros Even the @HooverInst is calling out the World Health Organization❗️
+Why do we trust an infiltrated d… https://t.co/IoEoh0BASK</t>
+  </si>
+  <si>
+    <t>@WHO @UN @UnitedNations @Talenthouse #CovidOpenBrief #UNCovid19Brief #FlattenTheCurve #SafeHands #AloneTogether… https://t.co/nu8shlLxXT</t>
+  </si>
+  <si>
+    <t>@WHO @WHOThailand @WHOSEARO @WHOWPRO This Is a crime against humanity</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros Where is Huang Yan Ling?</t>
+  </si>
+  <si>
+    <t>@WHO @UN @nature @TheLancet have a silly question: if #COVID19 is natural mutation of #coronavirus, why #China, des… https://t.co/HBk0mkIUBt</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros Bullyish behaviour of EU and Americans politicians  in disguise of  democracy have led to the death… https://t.co/nvbnz3wULQ</t>
+  </si>
+  <si>
+    <t>RT @DrTedros: Today marks 100 days since @WHO was notified of the first cases of what we now call #COVID19 in 🇨🇳 
+Over 1.3M people have bee…</t>
+  </si>
+  <si>
+    <t>@WHO, @IndianMedAssn,
+Your work and your life is been golden to society, you trying to save us, sir i have small id… https://t.co/TmiGVufPV5</t>
+  </si>
+  <si>
+    <t>RT @WHO: “Sometimes the most important thing we can do as friends is protect each other,” said Ario. “Even if that means staying away from…</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros https://t.co/tkRfVbgw7h</t>
+  </si>
+  <si>
+    <t>@WHO on your website it was written there that dead bodies does not pose a risk of epidemic, please is this also ap… https://t.co/BKaUADaamR</t>
+  </si>
+  <si>
+    <t>@WHO THIS IS HOW YOU PRAISE HEALTH SYSTEM IN IRAN!!</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros Who; wuhan health organization.!! F**king A**holes</t>
+  </si>
+  <si>
+    <t>@WHO @pahowho @WHOEMRO @WHO_Europe @WHOAFRO @WHOSEARO @WHOWPRO @DrTedros @UNICEF @UNESCO @UN_News_Centre .Orange mi… https://t.co/kKhV0B93pe</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros Cuomo and DeBlasio were slow to act says Obama ex-CDC head Dr. Thomas Frieden.
+https://t.co/JXOhrjO7ge</t>
+  </si>
+  <si>
+    <t>@WHO @UNICEF @UNICEF_SA @GautengFilmCom @nfvfsa @kwazulufilm please support our #Wazi animations #Covid_19SA for… https://t.co/x1QYKnAsrX</t>
   </si>
   <si>
     <t>RT @DrTedros: .@WHO's been working day &amp;amp; night to fight #COVID19 in 5 key areas:
@@ -30,9 +274,6 @@
 -Providing accu…</t>
   </si>
   <si>
-    <t>RT @DrTedros: .@WHO will be releasing an updated strategy &amp;amp; revised Strategic Preparedness &amp;amp; Response Plan in the next few days, with an es…</t>
-  </si>
-  <si>
     <t>@WHO  Following Indian paid media spreading hatred during pandemic Covid19 @aajtak @republic @ZeeNews @NewsNationTV… https://t.co/PeEuPxOTDJ</t>
   </si>
   <si>
@@ -43,16 +284,10 @@
 @DrTedros An example of how can make a mistake in choosing a manager WHO</t>
   </si>
   <si>
-    <t>RT @WHO: "We play games, cook, spend time in our garden and have meals together. My brothers and I touch our toes and dance. We read books…</t>
-  </si>
-  <si>
     <t>@WHO mean wuhan health organization</t>
   </si>
   <si>
     <t>@WHO could declare #DRCongo ‘Ebola free’ as soon as this Sunday - 42 days (i.e. twice the maximum incubation period… https://t.co/HbteFWO09z</t>
-  </si>
-  <si>
-    <t>RT @WHO_Europe: #COVID19 virus causes some flu-like symptoms. It’s important to remember not to take antibiotics to treat #COVID19. They wo…</t>
   </si>
   <si>
     <t>@WHO @DrTedros 
@@ -64,6 +299,228 @@
     <t>RT @WHO: We are grateful to @HowardDonald for giving the first public reading of “My Hero is You - how kids can fight #COVID19" at 15h00 GM…</t>
   </si>
   <si>
+    <t>Fgandoul</t>
+  </si>
+  <si>
+    <t>TinselTownGOP</t>
+  </si>
+  <si>
+    <t>NoneDisclosed</t>
+  </si>
+  <si>
+    <t>MangMickey</t>
+  </si>
+  <si>
+    <t>Suman11489580</t>
+  </si>
+  <si>
+    <t>Kenricward</t>
+  </si>
+  <si>
+    <t>AceViscuit</t>
+  </si>
+  <si>
+    <t>ICPCMedicine</t>
+  </si>
+  <si>
+    <t>JayUnadkat4</t>
+  </si>
+  <si>
+    <t>KaraahmetoluMu2</t>
+  </si>
+  <si>
+    <t>Russell83111671</t>
+  </si>
+  <si>
+    <t>saloy93</t>
+  </si>
+  <si>
+    <t>3PrettyinPurple</t>
+  </si>
+  <si>
+    <t>ilianazuleta</t>
+  </si>
+  <si>
+    <t>BaronFrenchFry</t>
+  </si>
+  <si>
+    <t>waqasmunir9500</t>
+  </si>
+  <si>
+    <t>DrCChambers</t>
+  </si>
+  <si>
+    <t>VileClock</t>
+  </si>
+  <si>
+    <t>sankar_sahu</t>
+  </si>
+  <si>
+    <t>AxelleEbode</t>
+  </si>
+  <si>
+    <t>gumedcenter</t>
+  </si>
+  <si>
+    <t>BIlmearie</t>
+  </si>
+  <si>
+    <t>mota_nation</t>
+  </si>
+  <si>
+    <t>IsadoraFurigo</t>
+  </si>
+  <si>
+    <t>CeliaLevy28</t>
+  </si>
+  <si>
+    <t>zedouti</t>
+  </si>
+  <si>
+    <t>darshancrs</t>
+  </si>
+  <si>
+    <t>HananBalkhy</t>
+  </si>
+  <si>
+    <t>NiliMajumder</t>
+  </si>
+  <si>
+    <t>Jay_taiwan_</t>
+  </si>
+  <si>
+    <t>OfficialMohd1</t>
+  </si>
+  <si>
+    <t>wasouthere</t>
+  </si>
+  <si>
+    <t>mickey_kinder</t>
+  </si>
+  <si>
+    <t>JeffySmell</t>
+  </si>
+  <si>
+    <t>PepeCharts</t>
+  </si>
+  <si>
+    <t>aimranqi</t>
+  </si>
+  <si>
+    <t>jockey1988</t>
+  </si>
+  <si>
+    <t>Michele72699456</t>
+  </si>
+  <si>
+    <t>chacker512</t>
+  </si>
+  <si>
+    <t>SrAgatha2</t>
+  </si>
+  <si>
+    <t>j_ashwani</t>
+  </si>
+  <si>
+    <t>CIHR_IHDCYH</t>
+  </si>
+  <si>
+    <t>KingArtul</t>
+  </si>
+  <si>
+    <t>samuregz</t>
+  </si>
+  <si>
+    <t>MatiasNordaby</t>
+  </si>
+  <si>
+    <t>jasmileus</t>
+  </si>
+  <si>
+    <t>police_rmn</t>
+  </si>
+  <si>
+    <t>gracesuh</t>
+  </si>
+  <si>
+    <t>vickimiko</t>
+  </si>
+  <si>
+    <t>FawadMa85868131</t>
+  </si>
+  <si>
+    <t>cookielego</t>
+  </si>
+  <si>
+    <t>chinazisogreat</t>
+  </si>
+  <si>
+    <t>onkendi254</t>
+  </si>
+  <si>
+    <t>Joanne__Buck</t>
+  </si>
+  <si>
+    <t>jimboslice510</t>
+  </si>
+  <si>
+    <t>QUINNMALL0RY</t>
+  </si>
+  <si>
+    <t>katbukowski</t>
+  </si>
+  <si>
+    <t>MekWarrior21</t>
+  </si>
+  <si>
+    <t>macdaddytx</t>
+  </si>
+  <si>
+    <t>Monica_Farrow</t>
+  </si>
+  <si>
+    <t>lucanojade</t>
+  </si>
+  <si>
+    <t>mjf87nl</t>
+  </si>
+  <si>
+    <t>DorienneW</t>
+  </si>
+  <si>
+    <t>zalaaga</t>
+  </si>
+  <si>
+    <t>Jin_Oyales</t>
+  </si>
+  <si>
+    <t>ShivamK22075604</t>
+  </si>
+  <si>
+    <t>PhanDu37158392</t>
+  </si>
+  <si>
+    <t>RKyungie0212</t>
+  </si>
+  <si>
+    <t>Murchadha_wolf</t>
+  </si>
+  <si>
+    <t>nanamirr</t>
+  </si>
+  <si>
+    <t>saurabhbhathiza</t>
+  </si>
+  <si>
+    <t>kinnehan</t>
+  </si>
+  <si>
+    <t>DabbaMennis</t>
+  </si>
+  <si>
+    <t>FIRDOZ</t>
+  </si>
+  <si>
     <t>TaraMPaine</t>
   </si>
   <si>
@@ -95,6 +552,282 @@
   </si>
   <si>
     <t>laralapsy</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:16:49 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:16:04 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:15:36 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:15:24 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:15:11 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:14:53 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:14:41 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:14:07 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:13:55 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:13:34 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:13:22 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:13:21 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:09:12 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:08:22 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:08:09 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:08:07 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:07:55 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:07:28 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:07:25 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:07:02 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:06:55 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:06:47 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:06:29 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:06:22 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:06:19 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:06:11 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:05:43 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:05:40 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:04:48 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:04:15 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:04:10 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:03:03 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:02:59 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:58:43 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:58:03 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:58:01 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:57:37 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:57:03 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:56:49 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:56:37 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:50:14 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:50:11 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:50:08 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:50:04 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:49:52 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:49:44 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:49:40 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:49:37 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:49:31 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:49:22 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:44:15 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:44:12 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:44:02 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:43:57 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:43:41 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:43:23 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:43:20 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:43:01 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:42:55 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:42:47 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:20:13 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:20:04 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:19:58 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:19:54 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:19:47 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:19:40 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:19:36 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:19:29 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:19:20 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:19:15 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:18:17 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:18:10 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:18:03 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:17:17 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:17:09 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:16:26 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:16:20 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:16:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:15:44 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:15:08 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:14:27 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:14:19 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:04:27 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:04:16 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:04:14 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:04:09 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:04:04 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:03:40 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:03:39 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:03:23 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:02:32 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 18:02:27 +0000 2020</t>
   </si>
   <si>
     <t>Thu Apr 09 14:13:57 +0000 2020</t>
@@ -485,7 +1218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,156 +1237,1458 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>92</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>91</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>90</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>89</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>88</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>87</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>86</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>85</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>81</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>80</v>
+      </c>
+      <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>79</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>77</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>76</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>75</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>71</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>68</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>67</v>
+      </c>
+      <c r="B38" t="s">
         <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>66</v>
+      </c>
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>65</v>
+      </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>64</v>
+      </c>
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>63</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>62</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>61</v>
+      </c>
+      <c r="B44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>60</v>
+      </c>
+      <c r="B45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>59</v>
+      </c>
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>58</v>
+      </c>
+      <c r="B47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>57</v>
+      </c>
+      <c r="B48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>56</v>
+      </c>
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>55</v>
+      </c>
+      <c r="B50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" t="s">
+        <v>119</v>
+      </c>
+      <c r="D50" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" t="s">
+        <v>122</v>
+      </c>
+      <c r="D53" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>123</v>
+      </c>
+      <c r="D54" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>50</v>
+      </c>
+      <c r="B55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" t="s">
+        <v>124</v>
+      </c>
+      <c r="D55" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>49</v>
+      </c>
+      <c r="B56" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" t="s">
+        <v>125</v>
+      </c>
+      <c r="D56" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>48</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>126</v>
+      </c>
+      <c r="D57" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>47</v>
+      </c>
+      <c r="B58" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>46</v>
+      </c>
+      <c r="B59" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" t="s">
+        <v>127</v>
+      </c>
+      <c r="D59" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>45</v>
+      </c>
+      <c r="B60" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" t="s">
+        <v>124</v>
+      </c>
+      <c r="D60" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>44</v>
+      </c>
+      <c r="B61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>43</v>
+      </c>
+      <c r="B62" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62" t="s">
+        <v>129</v>
+      </c>
+      <c r="D62" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>42</v>
+      </c>
+      <c r="B63" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>41</v>
+      </c>
+      <c r="B64" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" t="s">
+        <v>130</v>
+      </c>
+      <c r="D64" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>40</v>
+      </c>
+      <c r="B65" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" t="s">
+        <v>131</v>
+      </c>
+      <c r="D65" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
+        <v>39</v>
+      </c>
+      <c r="B66" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" t="s">
+        <v>130</v>
+      </c>
+      <c r="D66" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>38</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" t="s">
+        <v>132</v>
+      </c>
+      <c r="D67" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>37</v>
+      </c>
+      <c r="B68" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68" t="s">
+        <v>133</v>
+      </c>
+      <c r="D68" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
+        <v>36</v>
+      </c>
+      <c r="B69" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69" t="s">
+        <v>134</v>
+      </c>
+      <c r="D69" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
+        <v>35</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" t="s">
+        <v>135</v>
+      </c>
+      <c r="D70" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>34</v>
+      </c>
+      <c r="B71" t="s">
+        <v>58</v>
+      </c>
+      <c r="C71" t="s">
+        <v>136</v>
+      </c>
+      <c r="D71" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>33</v>
+      </c>
+      <c r="B72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" t="s">
+        <v>137</v>
+      </c>
+      <c r="D72" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>32</v>
+      </c>
+      <c r="B73" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73" t="s">
+        <v>138</v>
+      </c>
+      <c r="D73" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
+        <v>31</v>
+      </c>
+      <c r="B74" t="s">
+        <v>60</v>
+      </c>
+      <c r="C74" t="s">
+        <v>139</v>
+      </c>
+      <c r="D74" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
+        <v>30</v>
+      </c>
+      <c r="B75" t="s">
+        <v>61</v>
+      </c>
+      <c r="C75" t="s">
+        <v>140</v>
+      </c>
+      <c r="D75" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
+        <v>29</v>
+      </c>
+      <c r="B76" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" t="s">
+        <v>141</v>
+      </c>
+      <c r="D76" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1">
+        <v>28</v>
+      </c>
+      <c r="B77" t="s">
+        <v>62</v>
+      </c>
+      <c r="C77" t="s">
+        <v>142</v>
+      </c>
+      <c r="D77" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1">
+        <v>27</v>
+      </c>
+      <c r="B78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" t="s">
+        <v>143</v>
+      </c>
+      <c r="D78" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
+        <v>26</v>
+      </c>
+      <c r="B79" t="s">
+        <v>55</v>
+      </c>
+      <c r="C79" t="s">
+        <v>144</v>
+      </c>
+      <c r="D79" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
+        <v>25</v>
+      </c>
+      <c r="B80" t="s">
+        <v>63</v>
+      </c>
+      <c r="C80" t="s">
+        <v>145</v>
+      </c>
+      <c r="D80" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
+        <v>24</v>
+      </c>
+      <c r="B81" t="s">
+        <v>64</v>
+      </c>
+      <c r="C81" t="s">
+        <v>143</v>
+      </c>
+      <c r="D81" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
+        <v>23</v>
+      </c>
+      <c r="B82" t="s">
+        <v>65</v>
+      </c>
+      <c r="C82" t="s">
+        <v>131</v>
+      </c>
+      <c r="D82" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
+        <v>22</v>
+      </c>
+      <c r="B83" t="s">
+        <v>55</v>
+      </c>
+      <c r="C83" t="s">
+        <v>146</v>
+      </c>
+      <c r="D83" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
+        <v>21</v>
+      </c>
+      <c r="B84" t="s">
+        <v>66</v>
+      </c>
+      <c r="C84" t="s">
+        <v>147</v>
+      </c>
+      <c r="D84" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
+        <v>20</v>
+      </c>
+      <c r="B85" t="s">
+        <v>67</v>
+      </c>
+      <c r="C85" t="s">
+        <v>148</v>
+      </c>
+      <c r="D85" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
+        <v>19</v>
+      </c>
+      <c r="B86" t="s">
+        <v>55</v>
+      </c>
+      <c r="C86" t="s">
+        <v>149</v>
+      </c>
+      <c r="D86" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
+        <v>18</v>
+      </c>
+      <c r="B87" t="s">
+        <v>68</v>
+      </c>
+      <c r="C87" t="s">
+        <v>150</v>
+      </c>
+      <c r="D87" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
+        <v>17</v>
+      </c>
+      <c r="B88" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" t="s">
+        <v>149</v>
+      </c>
+      <c r="D88" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
+        <v>16</v>
+      </c>
+      <c r="B89" t="s">
+        <v>69</v>
+      </c>
+      <c r="C89" t="s">
+        <v>151</v>
+      </c>
+      <c r="D89" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
+        <v>15</v>
+      </c>
+      <c r="B90" t="s">
+        <v>70</v>
+      </c>
+      <c r="C90" t="s">
+        <v>152</v>
+      </c>
+      <c r="D90" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
+        <v>14</v>
+      </c>
+      <c r="B91" t="s">
+        <v>71</v>
+      </c>
+      <c r="C91" t="s">
+        <v>153</v>
+      </c>
+      <c r="D91" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
+        <v>13</v>
+      </c>
+      <c r="B92" t="s">
+        <v>72</v>
+      </c>
+      <c r="C92" t="s">
+        <v>154</v>
+      </c>
+      <c r="D92" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1">
+        <v>12</v>
+      </c>
+      <c r="B93" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" t="s">
+        <v>153</v>
+      </c>
+      <c r="D93" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1">
+        <v>11</v>
+      </c>
+      <c r="B94" t="s">
+        <v>73</v>
+      </c>
+      <c r="C94" t="s">
+        <v>155</v>
+      </c>
+      <c r="D94" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1">
+        <v>10</v>
+      </c>
+      <c r="B95" t="s">
+        <v>74</v>
+      </c>
+      <c r="C95" t="s">
+        <v>156</v>
+      </c>
+      <c r="D95" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
+        <v>9</v>
+      </c>
+      <c r="B96" t="s">
+        <v>32</v>
+      </c>
+      <c r="C96" t="s">
+        <v>157</v>
+      </c>
+      <c r="D96" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1">
+        <v>8</v>
+      </c>
+      <c r="B97" t="s">
+        <v>75</v>
+      </c>
+      <c r="C97" t="s">
+        <v>158</v>
+      </c>
+      <c r="D97" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1">
+        <v>7</v>
+      </c>
+      <c r="B98" t="s">
+        <v>76</v>
+      </c>
+      <c r="C98" t="s">
+        <v>159</v>
+      </c>
+      <c r="D98" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1">
+        <v>6</v>
+      </c>
+      <c r="B99" t="s">
+        <v>77</v>
+      </c>
+      <c r="C99" t="s">
+        <v>160</v>
+      </c>
+      <c r="D99" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1">
+        <v>5</v>
+      </c>
+      <c r="B100" t="s">
+        <v>52</v>
+      </c>
+      <c r="C100" t="s">
+        <v>161</v>
+      </c>
+      <c r="D100" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1">
+        <v>4</v>
+      </c>
+      <c r="B101" t="s">
+        <v>78</v>
+      </c>
+      <c r="C101" t="s">
+        <v>162</v>
+      </c>
+      <c r="D101" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1">
+        <v>3</v>
+      </c>
+      <c r="B102" t="s">
+        <v>79</v>
+      </c>
+      <c r="C102" t="s">
+        <v>163</v>
+      </c>
+      <c r="D102" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1">
+        <v>2</v>
+      </c>
+      <c r="B103" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" t="s">
+        <v>164</v>
+      </c>
+      <c r="D103" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1">
+        <v>1</v>
+      </c>
+      <c r="B104" t="s">
+        <v>80</v>
+      </c>
+      <c r="C104" t="s">
+        <v>165</v>
+      </c>
+      <c r="D104" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>81</v>
+      </c>
+      <c r="C105" t="s">
+        <v>166</v>
+      </c>
+      <c r="D105" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/reversed_tweets.xlsx
+++ b/reversed_tweets.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="540">
   <si>
     <t>Texto del tweet</t>
   </si>
@@ -25,6 +25,329 @@
     <t>Fecha</t>
   </si>
   <si>
+    <t>31 Dec 2019: #China reported a cluster of cases of pneumonia in Wuhan, Hubei Province.
+1 Jan 2020: WHO activates a… https://t.co/hRaqX625T7</t>
+  </si>
+  <si>
+    <t>As we mark 100 days since the first case of what we now call #COVID19 now was notified to WHO, here is the timeline… https://t.co/A19ZmGlpk6</t>
+  </si>
+  <si>
+    <t>@WHO Americans will be happy to keep our money and give it to the American people that have lost jobs and family me… https://t.co/jDkosrUMjj</t>
+  </si>
+  <si>
+    <t>RT @WHO: Media briefing on #COVID19 with @DrTedros. #coronavirus https://t.co/ZKy3OjKgBl</t>
+  </si>
+  <si>
+    <t>RT @WHO: WHO will have a special guest at today's #COVID19 press conference: @ladygaga will be joining us to announce the 
+One World: #Tog…</t>
+  </si>
+  <si>
+    <t>@WHO Report: Office of Management and Budget Working on Plan to Cut WHO Funding
+Without the US $$$ you a d your or… https://t.co/ne90tRny5L</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros Keep lying to yourself ...Tedros is an Ethiopian politician and minister who killed thousands of his… https://t.co/XzOFkHSl7n</t>
+  </si>
+  <si>
+    <t>@WHO what a waste of time you lot are !!!</t>
+  </si>
+  <si>
+    <t>@WHO @WHAAsstSecty @POTUS @JRBauza @mbachelet @CP_OEA @Almagro_OEA2015 @UnidadNic @ONU_es @ZaydaMu19a @sg_sica… https://t.co/YdZAwQkt0S</t>
+  </si>
+  <si>
+    <t>@WHO 
+I forgot to say thank you.
+************"""""""""********</t>
+  </si>
+  <si>
+    <t>RT @WHO: Grab your book and watch @HowardDonald reading “My Hero is You, How kids can fight #COVID19!”
+📚 https://t.co/L23wN2LZwB
+#coronav…</t>
+  </si>
+  <si>
+    <t>RT @WHO: Preliminary investigations conducted by the Chinese authorities have found no clear evidence of human-to-human transmission of the…</t>
+  </si>
+  <si>
+    <t>@WHO @HowardDonald https://t.co/5SgUv10kVe
+The China health organization is corrupt garbage
+Trump 2020
+https://t.co/qP1gs6GwCp</t>
+  </si>
+  <si>
+    <t>@WHO 
+Suggestion: Tell people to wash their hands when they also get "MONEY and everyone who picks up various objects (</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros Motherfucker Chinese Dick Sucker, forgot to drink your mom's milk?? Drink some Chinese sperm and eat… https://t.co/9khVVSAle4</t>
+  </si>
+  <si>
+    <t>@WHO @pahowho @WHOEMRO @WHO_Europe @WHOAFRO @WHOSEARO @WHOWPRO @DrTedros @UNICEF @UNESCO @UN_News_Centre That drawing is 100% nightmare fuel</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros is the reason of spread pandemic!
+@DrTedros uses his long tongue to wipe the Chinese asses every day… https://t.co/A38jwm0V13</t>
+  </si>
+  <si>
+    <t>RT @WHO: Kids, meet Ario - a kind, orange dragon with a horn like a unicorn, who will introduce you to #COVID19 and help you understand how…</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros This warning about FUTURE pandemics was written in 2017‼️
+#WHO has not been doing it's job b/c they… https://t.co/8ekw7O7jUS</t>
+  </si>
+  <si>
+    <t>@WHO 
+Peace we would like to introduce you to #Mohammedshaikh #TheQuranMan who has delivered more than 50 lectures… https://t.co/k9FrMJDm6V</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros Taiwan warned #WHO there is a sign of human-to-human transmission in Dec. But, you did not share the… https://t.co/Rj3IGopDdh</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros https://t.co/vmfrtS9Jpl</t>
+  </si>
+  <si>
+    <t>RT @WHO: FACT: #COVID19 IS NOT transmitted through houseflies
+#coronavirus #KnowTheFacts https://t.co/2SxM7Voofv</t>
+  </si>
+  <si>
+    <t>@WHO  He is not doing good . 
+he is the reason for death of currently approx 1 lakh people  and in future more.
+If… https://t.co/Q7nTJZfkuA</t>
+  </si>
+  <si>
+    <t>@WHO is a disgrace. Investigation must take place immediately. Possible prosecution for Tedros?</t>
+  </si>
+  <si>
+    <t>@WHO @NCDCgov is #COVID19Pandemic  airborne?</t>
+  </si>
+  <si>
+    <t>RT @WHO: 👏👏👏👏👏👏👏👏👏👏👏
+👏👏👏👏👏👏👏👏👏👏👏
+👏👏👏👏👏👏👏👏👏👏👏
+   👏#ThanksHealthHeroes👏
+👏👏👏👏👏👏👏👏👏👏👏
+👏👏👏👏👏👏👏👏👏👏👏
+👏👏👏👏👏👏👏👏👏👏👏
+👏👏👏👏👏👏👏👏👏👏👏 
+          #WorldHeal…</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros Confinement mesures in Africa  will bring repression &amp;amp; hunger with no effect on covid-19.
+https://t.co/xzJCWDCLaD</t>
+  </si>
+  <si>
+    <t>@WHO wants to come to your home to check you don't have sniffles. Than if you have the sniffles, they will mark you… https://t.co/WvGIPE5maY</t>
+  </si>
+  <si>
+    <t>@WHO @DrMikeRyan @DrTedros don't teach us how to run our country Mike #ShutUpMikeRyan &amp;amp; do your job properly… https://t.co/sTCcRRYO4t</t>
+  </si>
+  <si>
+    <t>@WHO @hrw @UNHumanRights 
+Secular IND where pandemic can be used for communal purposes</t>
+  </si>
+  <si>
+    <t>@WHO @HowardDonald https://t.co/SYhJuJME11 https://t.co/pnw9tr0ZSE</t>
+  </si>
+  <si>
+    <t>@WHO go fk yourself</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros @DrMikeRyan Who asked for your opinion regarding the tablighi Jamaat ?? Our country, whatever we do,… https://t.co/MsRZW9jSlU</t>
+  </si>
+  <si>
+    <t>RT @WHO: FACT: #5G mobile networks DO NOT spread #COVID19 
+More: https://t.co/TdKoGmWrIr
+#coronavirus #KnowTheFacts https://t.co/c56tToal…</t>
+  </si>
+  <si>
+    <t>RT @WHO: The book “My Hero is You, How kids can fight #COVID19!” will be widely translated, with six language versions released today and m…</t>
+  </si>
+  <si>
+    <t>RT @WHO: “Sometimes the most important thing we can do as friends is protect each other,” said Ario. “Even if that means staying away from…</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros https://t.co/SYhJuJME11</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros Are not #CALAMITIES (#CoronaVirusUpdates)
+in the #EARTH &amp;amp; in our #SOUL already recorded in the #BOOK… https://t.co/ywVY1WDCFv</t>
+  </si>
+  <si>
+    <t>RT @WHO: “There are many heroes keeping people safe from the #coronavirus, like wonderful doctors and nurses. But you remind me that we can…</t>
+  </si>
+  <si>
+    <t>@WHO  guys you can keep your mouth shut because of u we are in a #nationwidelockdown and now u are giving lectures… https://t.co/tHSYYgg0h9</t>
+  </si>
+  <si>
+    <t>@WHO @WHOThailand @WHOSEARO @WHOWPRO This lie alone is reason enough for President Trump to Defund you with my full blessings</t>
+  </si>
+  <si>
+    <t>@WHO  @DrTedros I hope you guys are seeing how Communist China government is treating Africans in China. Especially… https://t.co/3qod1sKc48</t>
+  </si>
+  <si>
+    <t>@WHO @HowardDonald why we need a who!</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros https://t.co/RQOtaRmkp0</t>
+  </si>
+  <si>
+    <t>@WHO @HowardDonald We are suffering because of your false reports, Karma will pay you off soon!!
+#MuchHate</t>
+  </si>
+  <si>
+    <t>RT @OPSOMSPeru: Info para cuidadores de personas con sospecha o confirmación de #COVID19
+#LavaTusManos frecuentemente
+Asegúrate que la per…</t>
+  </si>
+  <si>
+    <t>RT @WHOPhilippines: Ikaw at ang iyong mahal sa buhay ay malalagay sa panganib ng #COVID19PH kung lalabas ng bahay.
+Sa halip na bumisita sa…</t>
+  </si>
+  <si>
+    <t>@WHO @HowardDonald @DrTedros @MOFA_Taiwan Never I have ever got insulted while living in Taiwan or felt insecure ov… https://t.co/5Ru69OsoXa</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros https://t.co/bu0fa17pF2</t>
+  </si>
+  <si>
+    <t>@WHO @HowardDonald @DrTedros get your story straight and stop insulting taiwanese people. The fact you don't accept… https://t.co/B6beVfV49E</t>
+  </si>
+  <si>
+    <t>@WHO the key word being “alerted.” It’s been 100 days since China “alerted” #WHO of the #coronoavirus. The world kn… https://t.co/N1j6SlTUAL</t>
+  </si>
+  <si>
+    <t>RT @WHO: "4⃣ we’re working to train and mobilize #healthworkers.
+More than 1.2M people have enrolled in 6 courses in 43 languages on our h…</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros Stop giving mk ey to this organization they failed</t>
+  </si>
+  <si>
+    <t>@WHO you are responsible for so many deaths..your head of department is a killer. I have lost all respect for the o… https://t.co/5SUCXqUaCG</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros So all these measures still left the world with corona virus kind of hard to believe</t>
+  </si>
+  <si>
+    <t>@WHO warned of #coronavirus transmission risk in January, despite Trump claims https://t.co/Tr7iXAt4uz via @julianborger</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros You're a bunch of fucking clowns, puppets of the Communist Party of China. Now one of your butcher o… https://t.co/up1LQFyTPA</t>
+  </si>
+  <si>
+    <t>@WHO when is the cure dropping? 😭💔</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros This organisation working only for China.</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros Taiwan ’s anti-Wuhan virus has been very successful and is world-renowned.  Taiwan ’s strategy is ve… https://t.co/rK4O4XWvDR</t>
+  </si>
+  <si>
+    <t>@WHO should sacked their president @DrTedros for being partial defending China 🇨🇳 for spreading into the world 🌎 an… https://t.co/3Bg9MaiNBr</t>
+  </si>
+  <si>
+    <t>@WHO 
+You are a traitor to America 
+Will be great to see you GO!</t>
+  </si>
+  <si>
+    <t>@WHO @WHOEMRO @WHO_Europe @WHOWPRO @WHOAFRO @pahowho @WHOSEARO @hvpatuck indeed, there are many heroes lead us to f… https://t.co/FKkMKXFng9</t>
+  </si>
+  <si>
+    <t>@WHO had said india don't do religious profiling of COVID-19
+You duffers chinese puppet shut your mouth 
+People o… https://t.co/Ww2FXPu33d</t>
+  </si>
+  <si>
+    <t>@WHO @WHOEMRO @WHO_Europe @WHOWPRO @WHOAFRO @pahowho @WHOSEARO Doesn’t anyone understand. #POTUS does not dislike W… https://t.co/DD3Lt9koex</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros You should resign immediately</t>
+  </si>
+  <si>
+    <t>@WHO @ladygaga W.H.O the HELL are YOU? Gaga is Not a Doctor.
+Genocidal #Frauds!
+NO WE WILL NOT GET CHIPPED to leave… https://t.co/zpAA4fLeiV</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros @realDonaldTrump WHO?
+I Guess they are #chinese #licker health organization</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros https://t.co/VX82C6mdwV</t>
+  </si>
+  <si>
+    <t>@who @narendramodi @unitednations @unesco #CoronaVirus COVID-19 was transmitted by cats to cat eating humans via sn… https://t.co/GyZhseS7kw</t>
+  </si>
+  <si>
+    <t>@WHO has no credibility</t>
+  </si>
+  <si>
+    <t>@WHO @HowardDonald @DrTedros For living both in China &amp;amp; Taiwan, let me tell you, racism is way more present in Chin… https://t.co/xIUrNdU6b5</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros World Health Organization (WHO) it’s ok, all you do is mislead people anyway</t>
+  </si>
+  <si>
+    <t>@WHO</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros who???? or CHINESE LICKER health organization!!! #shame</t>
+  </si>
+  <si>
+    <t>RT @DrTedros: .@WHO will be releasing an updated strategy &amp;amp; revised Strategic Preparedness &amp;amp; Response Plan in the next few days, with an es…</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros voice of Taiwanese 
+ https://t.co/pTWus1Fa4T</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros I wouldn't sign anything with the WHO.  What consideration are you offering up?  Corrupt medicine mu… https://t.co/ihdiV40rS6</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros You are ALL incompetent idiots, too scared of losing your nice, clean jobs to actually DO your jobs.… https://t.co/qWhTuXj0Jl</t>
+  </si>
+  <si>
+    <t>RT @DrTedros: Today marks 100 days since @WHO was notified of the first cases of what we now call #COVID19 in 🇨🇳 
+Over 1.3M people have bee…</t>
+  </si>
+  <si>
+    <t>@WHO who are you to comment on india ? be silent as when you silent on china 😠😠😠😠😠</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros https://t.co/J2F8AeQNoq</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros …</t>
+  </si>
+  <si>
+    <t>RT @WHO: @DrTedros @WHOWPRO @WHOAFRO @WHOSEARO @WHO_Europe @WHOEMRO @pahowho "We reiterate our call to all countries not to impose restrict…</t>
+  </si>
+  <si>
+    <t>RT @WHO: "We play games, cook, spend time in our garden and have meals together. My brothers and I touch our toes and dance. We read books…</t>
+  </si>
+  <si>
+    <t>RT @WHO: "Just in the past 2 days we convened an online workshop to crowdsource ideas from 600+ experts, institutions &amp;amp; individuals on ways…</t>
+  </si>
+  <si>
+    <t>@WHO “Mi héroe esres tú”
+Se publica un cuento infantil para ayudar a niños y jóvenes a hacer frente a la pandemia d… https://t.co/DdugyxUWCb</t>
+  </si>
+  <si>
+    <t>@WHO are a bunch of crazies owned by the #ChineseCommunistParty! @POTUS dump and defund these lunatics now!</t>
+  </si>
+  <si>
+    <t>RT @DrTedros: .@WHO's been working day &amp;amp; night to fight #COVID19 in 5 key areas:
+-Supporting countries to prepare &amp;amp; respond
+-Providing accu…</t>
+  </si>
+  <si>
+    <t>@WHO @PMOIndia #ItalyCoronavirus @GiuseppeConteIT @SpainMFA @realDonaldTrump Stop import from China as Wuhan is sti… https://t.co/FgcxLg40NE</t>
+  </si>
+  <si>
+    <t>@WHO- “There are many heroes keeping people safe from the #coronavirus, like wonderful doctors and nurses. But you… https://t.co/5Zrse6aotX</t>
+  </si>
+  <si>
     <t>RT @WHO: "If countries rush to lift restrictions quickly, the #coronavirus could resurge &amp;amp; the economic impact could be more severe &amp;amp; prolo…</t>
   </si>
   <si>
@@ -35,9 +358,6 @@
   </si>
   <si>
     <t>@WHO @DrTedros https://t.co/InRSJBnNIH</t>
-  </si>
-  <si>
-    <t>RT @WHO: Media briefing on #COVID19 with @DrTedros. #coronavirus https://t.co/ZKy3OjKgBl</t>
   </si>
   <si>
     <t>@WHO @WHOEMRO @WHO_Europe @WHOWPRO @WHOAFRO @pahowho @WHOSEARO @hvpatuck World seeks answers; @WHO doles out Chines… https://t.co/vVBUL9zUvK</t>
@@ -62,16 +382,10 @@
     <t>RT @WHO_Europe: #COVID19 virus causes some flu-like symptoms. It’s important to remember not to take antibiotics to treat #COVID19. They wo…</t>
   </si>
   <si>
-    <t>RT @WHO: Kids, meet Ario - a kind, orange dragon with a horn like a unicorn, who will introduce you to #COVID19 and help you understand how…</t>
-  </si>
-  <si>
     <t>@WHO @DrTedros God will pay u back dr tedros no matter what</t>
   </si>
   <si>
     <t>RT @WHO: "There is no black or white answer, and no silver bullet. Masks alone cannot stop the #COVID19 pandemic. Countries must continue t…</t>
-  </si>
-  <si>
-    <t>RT @WHO: Preliminary investigations conducted by the Chinese authorities have found no clear evidence of human-to-human transmission of the…</t>
   </si>
   <si>
     <t>@WHO @DrMikeRyan @DrTedros Adan Meeca
@@ -95,11 +409,6 @@
     <t>RT @WHO: "We activated our global expert networks to tap the world’s leading epidemiologists, clinicians, social-scientists, statisticians,…</t>
   </si>
   <si>
-    <t>RT @OPSOMSPeru: Info para cuidadores de personas con sospecha o confirmación de #COVID19
-#LavaTusManos frecuentemente
-Asegúrate que la per…</t>
-  </si>
-  <si>
     <t>@WHO Resign, the world health organization is spreading Chinese propaganda</t>
   </si>
   <si>
@@ -115,15 +424,7 @@
     <t>@WHO @DrTedros https://t.co/VV7d4vWQfZ #WHO do the right thing #TedrosMustStepDown . #UN should respect the growing… https://t.co/8m5MsZucFE</t>
   </si>
   <si>
-    <t>RT @WHO: Grab your book and watch @HowardDonald reading “My Hero is You, How kids can fight #COVID19!”
-📚 https://t.co/L23wN2LZwB
-#coronav…</t>
-  </si>
-  <si>
     <t>@WHO @DrTedros https://t.co/3Sy0Ey1ZFO</t>
-  </si>
-  <si>
-    <t>RT @DrTedros: .@WHO will be releasing an updated strategy &amp;amp; revised Strategic Preparedness &amp;amp; Response Plan in the next few days, with an es…</t>
   </si>
   <si>
     <t>@WHO stop bullying Taiwan!</t>
@@ -197,19 +498,6 @@
     <t>@WHO your big boss just said he doesn't care, and its all true! He doest care, heis pocket has either been lined up… https://t.co/v3zw4WRe6a</t>
   </si>
   <si>
-    <t>RT @WHO: "We play games, cook, spend time in our garden and have meals together. My brothers and I touch our toes and dance. We read books…</t>
-  </si>
-  <si>
-    <t>RT @WHO: WHO will have a special guest at today's #COVID19 press conference: @ladygaga will be joining us to announce the 
-One World: #Tog…</t>
-  </si>
-  <si>
-    <t>RT @WHO: “There are many heroes keeping people safe from the #coronavirus, like wonderful doctors and nurses. But you remind me that we can…</t>
-  </si>
-  <si>
-    <t>RT @WHO: The book “My Hero is You, How kids can fight #COVID19!” will be widely translated, with six language versions released today and m…</t>
-  </si>
-  <si>
     <t>@WHO @IndianMedAssn 
 We need to identi magnetic property f corona virus, and gravitational property, and in which f… https://t.co/x4PkSNCzFY</t>
   </si>
@@ -236,17 +524,10 @@
     <t>@WHO @DrTedros Bullyish behaviour of EU and Americans politicians  in disguise of  democracy have led to the death… https://t.co/nvbnz3wULQ</t>
   </si>
   <si>
-    <t>RT @DrTedros: Today marks 100 days since @WHO was notified of the first cases of what we now call #COVID19 in 🇨🇳 
-Over 1.3M people have bee…</t>
-  </si>
-  <si>
     <t>@WHO, @IndianMedAssn,
 Your work and your life is been golden to society, you trying to save us, sir i have small id… https://t.co/TmiGVufPV5</t>
   </si>
   <si>
-    <t>RT @WHO: “Sometimes the most important thing we can do as friends is protect each other,” said Ario. “Even if that means staying away from…</t>
-  </si>
-  <si>
     <t>@WHO @DrTedros https://t.co/tkRfVbgw7h</t>
   </si>
   <si>
@@ -267,11 +548,6 @@
   </si>
   <si>
     <t>@WHO @UNICEF @UNICEF_SA @GautengFilmCom @nfvfsa @kwazulufilm please support our #Wazi animations #Covid_19SA for… https://t.co/x1QYKnAsrX</t>
-  </si>
-  <si>
-    <t>RT @DrTedros: .@WHO's been working day &amp;amp; night to fight #COVID19 in 5 key areas:
--Supporting countries to prepare &amp;amp; respond
--Providing accu…</t>
   </si>
   <si>
     <t>@WHO  Following Indian paid media spreading hatred during pandemic Covid19 @aajtak @republic @ZeeNews @NewsNationTV… https://t.co/PeEuPxOTDJ</t>
@@ -299,6 +575,270 @@
     <t>RT @WHO: We are grateful to @HowardDonald for giving the first public reading of “My Hero is You - how kids can fight #COVID19" at 15h00 GM…</t>
   </si>
   <si>
+    <t>WHO</t>
+  </si>
+  <si>
+    <t>ProudtoTexas</t>
+  </si>
+  <si>
+    <t>MadridSmartCity</t>
+  </si>
+  <si>
+    <t>dimond4eva</t>
+  </si>
+  <si>
+    <t>Sariel_BC</t>
+  </si>
+  <si>
+    <t>LastMan61141871</t>
+  </si>
+  <si>
+    <t>SattarShakari</t>
+  </si>
+  <si>
+    <t>oldchig</t>
+  </si>
+  <si>
+    <t>MujerOracion</t>
+  </si>
+  <si>
+    <t>KalinaGomes5</t>
+  </si>
+  <si>
+    <t>Lindsey00305150</t>
+  </si>
+  <si>
+    <t>Gosh49387290</t>
+  </si>
+  <si>
+    <t>BykowskiC</t>
+  </si>
+  <si>
+    <t>kevyn_on_earth</t>
+  </si>
+  <si>
+    <t>_SACHIN_CHAUHAN</t>
+  </si>
+  <si>
+    <t>bevlarson60</t>
+  </si>
+  <si>
+    <t>Grenthblood</t>
+  </si>
+  <si>
+    <t>sukritsaxena</t>
+  </si>
+  <si>
+    <t>Marali72</t>
+  </si>
+  <si>
+    <t>HBergHattie</t>
+  </si>
+  <si>
+    <t>AkhlaqK57360079</t>
+  </si>
+  <si>
+    <t>dez1o1</t>
+  </si>
+  <si>
+    <t>EVillafane</t>
+  </si>
+  <si>
+    <t>nyamwire</t>
+  </si>
+  <si>
+    <t>Raju9801390084</t>
+  </si>
+  <si>
+    <t>tonyewen</t>
+  </si>
+  <si>
+    <t>tims1807</t>
+  </si>
+  <si>
+    <t>cmsinghhp1</t>
+  </si>
+  <si>
+    <t>josep_subirana</t>
+  </si>
+  <si>
+    <t>IdejuNa</t>
+  </si>
+  <si>
+    <t>naaz_sharma</t>
+  </si>
+  <si>
+    <t>arehmankhanyah1</t>
+  </si>
+  <si>
+    <t>Alicialuvlife</t>
+  </si>
+  <si>
+    <t>av_isin</t>
+  </si>
+  <si>
+    <t>VikramS17935970</t>
+  </si>
+  <si>
+    <t>MasonMatrazzo</t>
+  </si>
+  <si>
+    <t>fec_62</t>
+  </si>
+  <si>
+    <t>ParkAvoy_Girl</t>
+  </si>
+  <si>
+    <t>MohammadFarazTa</t>
+  </si>
+  <si>
+    <t>Atal_writes</t>
+  </si>
+  <si>
+    <t>RobinFlatt</t>
+  </si>
+  <si>
+    <t>Freedom48495100</t>
+  </si>
+  <si>
+    <t>AngelaOluwafumi</t>
+  </si>
+  <si>
+    <t>xbhhl</t>
+  </si>
+  <si>
+    <t>TaylorH7</t>
+  </si>
+  <si>
+    <t>amishigupta3</t>
+  </si>
+  <si>
+    <t>Antonio01201223</t>
+  </si>
+  <si>
+    <t>TastyVitaminC</t>
+  </si>
+  <si>
+    <t>gmmc212</t>
+  </si>
+  <si>
+    <t>oflola1</t>
+  </si>
+  <si>
+    <t>debjourn</t>
+  </si>
+  <si>
+    <t>Sarkar_Arnab28</t>
+  </si>
+  <si>
+    <t>pash22</t>
+  </si>
+  <si>
+    <t>makeooooh</t>
+  </si>
+  <si>
+    <t>itsmythimthim</t>
+  </si>
+  <si>
+    <t>TapasKu06420380</t>
+  </si>
+  <si>
+    <t>JudyChe1971</t>
+  </si>
+  <si>
+    <t>navneetsingh18</t>
+  </si>
+  <si>
+    <t>samcrullo</t>
+  </si>
+  <si>
+    <t>hateyouindeed</t>
+  </si>
+  <si>
+    <t>009Durgesh</t>
+  </si>
+  <si>
+    <t>swiperight10</t>
+  </si>
+  <si>
+    <t>rahman_olawale</t>
+  </si>
+  <si>
+    <t>caramastrey</t>
+  </si>
+  <si>
+    <t>3ntry7</t>
+  </si>
+  <si>
+    <t>jundishapur</t>
+  </si>
+  <si>
+    <t>theawaitedman</t>
+  </si>
+  <si>
+    <t>QSkwirly</t>
+  </si>
+  <si>
+    <t>PruWolfie</t>
+  </si>
+  <si>
+    <t>GautamS97544579</t>
+  </si>
+  <si>
+    <t>SafeGreece</t>
+  </si>
+  <si>
+    <t>HealthcareUS411</t>
+  </si>
+  <si>
+    <t>AmericanObserva</t>
+  </si>
+  <si>
+    <t>joni_w5</t>
+  </si>
+  <si>
+    <t>AshShosho</t>
+  </si>
+  <si>
+    <t>RealWorld2018</t>
+  </si>
+  <si>
+    <t>rajib_irajib</t>
+  </si>
+  <si>
+    <t>Rahulhum</t>
+  </si>
+  <si>
+    <t>O1g6kBQNzbOfvCW</t>
+  </si>
+  <si>
+    <t>4a02c12166</t>
+  </si>
+  <si>
+    <t>GzX01</t>
+  </si>
+  <si>
+    <t>Storemen</t>
+  </si>
+  <si>
+    <t>Zumel</t>
+  </si>
+  <si>
+    <t>bereadyslc</t>
+  </si>
+  <si>
+    <t>Girls_philly</t>
+  </si>
+  <si>
+    <t>MyrnaFCh</t>
+  </si>
+  <si>
+    <t>Joyabel_101</t>
+  </si>
+  <si>
+    <t>bhoyarvishal5</t>
+  </si>
+  <si>
     <t>Fgandoul</t>
   </si>
   <si>
@@ -552,6 +1092,315 @@
   </si>
   <si>
     <t>laralapsy</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 20:44:35 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 20:44:13 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 20:44:03 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 20:43:47 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 20:43:27 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 20:43:09 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 20:42:33 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 20:42:28 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 20:41:54 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 20:09:56 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 20:09:54 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 20:09:36 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 20:09:16 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 20:09:03 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 20:08:39 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 20:07:11 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 20:06:58 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 20:06:01 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 20:05:58 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 20:03:57 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 20:03:45 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 20:03:39 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 20:03:04 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 20:01:18 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 20:00:58 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:59:47 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:59:34 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:58:58 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:58:42 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:58:36 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:58:27 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:57:44 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:57:15 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:49:17 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:49:15 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:48:40 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:48:18 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:48:06 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:47:38 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:47:36 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:47:27 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:47:07 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:47:03 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:44:06 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:43:54 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:43:45 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:43:18 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:43:12 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:43:04 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:42:43 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:42:40 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:42:32 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:42:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:38:22 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:37:46 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:37:40 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:36:53 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:36:49 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:36:47 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:36:26 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:36:06 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:35:59 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:35:34 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:34:25 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:34:01 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:33:50 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:33:40 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:33:32 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:33:08 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:33:01 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:32:49 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:32:44 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:32:42 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:32:10 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:32:04 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:31:54 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:31:52 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:31:48 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:31:39 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:31:04 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:30:48 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:30:37 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:30:10 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:29:38 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:29:37 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:29:34 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:29:28 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:29:14 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:23:10 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:22:26 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:22:17 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:21:24 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:21:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:20:58 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:20:49 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:20:42 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:20:38 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:20:29 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:19:38 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:19:18 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:19:05 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:18:46 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Apr 09 19:18:41 +0000 2020</t>
   </si>
   <si>
     <t>Thu Apr 09 19:16:49 +0000 2020</t>
@@ -1218,7 +2067,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D105"/>
+  <dimension ref="A1:D210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1237,1458 +2086,2928 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>103</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
-        <v>167</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>102</v>
+        <v>207</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
-        <v>168</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>101</v>
+        <v>206</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="D4" t="s">
-        <v>169</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>100</v>
+        <v>205</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="D5" t="s">
-        <v>170</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>99</v>
+        <v>204</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="D6" t="s">
-        <v>171</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>98</v>
+        <v>203</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>165</v>
       </c>
       <c r="D7" t="s">
-        <v>172</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>97</v>
+        <v>202</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="D8" t="s">
-        <v>173</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>96</v>
+        <v>201</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="D9" t="s">
-        <v>174</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="D10" t="s">
-        <v>175</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>94</v>
+        <v>199</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>169</v>
       </c>
       <c r="D11" t="s">
-        <v>176</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>93</v>
+        <v>198</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>170</v>
       </c>
       <c r="D12" t="s">
-        <v>177</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>92</v>
+        <v>197</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>171</v>
       </c>
       <c r="D13" t="s">
-        <v>178</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>91</v>
+        <v>196</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="D14" t="s">
-        <v>179</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>90</v>
+        <v>195</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>173</v>
       </c>
       <c r="D15" t="s">
-        <v>180</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>89</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="D16" t="s">
-        <v>181</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="D17" t="s">
-        <v>182</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <v>87</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="D18" t="s">
-        <v>183</v>
+        <v>348</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>86</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>175</v>
       </c>
       <c r="D19" t="s">
-        <v>184</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="D20" t="s">
-        <v>185</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>84</v>
+        <v>189</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>177</v>
       </c>
       <c r="D21" t="s">
-        <v>186</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>83</v>
+        <v>188</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>178</v>
       </c>
       <c r="D22" t="s">
-        <v>187</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>179</v>
       </c>
       <c r="D23" t="s">
-        <v>188</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="D24" t="s">
-        <v>189</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="D25" t="s">
-        <v>190</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="D26" t="s">
-        <v>191</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>183</v>
       </c>
       <c r="D27" t="s">
-        <v>192</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="D28" t="s">
-        <v>192</v>
+        <v>358</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="D29" t="s">
-        <v>193</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>186</v>
       </c>
       <c r="D30" t="s">
-        <v>194</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="D31" t="s">
-        <v>195</v>
+        <v>361</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1">
-        <v>73</v>
+        <v>178</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="D32" t="s">
-        <v>196</v>
+        <v>362</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1">
-        <v>72</v>
+        <v>177</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="D33" t="s">
-        <v>197</v>
+        <v>363</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1">
-        <v>71</v>
+        <v>176</v>
       </c>
       <c r="B34" t="s">
         <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>108</v>
+        <v>190</v>
       </c>
       <c r="D34" t="s">
-        <v>198</v>
+        <v>364</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="D35" t="s">
-        <v>199</v>
+        <v>365</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1">
-        <v>69</v>
+        <v>174</v>
       </c>
       <c r="B36" t="s">
         <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
+        <v>192</v>
       </c>
       <c r="D36" t="s">
-        <v>200</v>
+        <v>366</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1">
-        <v>68</v>
+        <v>173</v>
       </c>
       <c r="B37" t="s">
         <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="D37" t="s">
-        <v>201</v>
+        <v>367</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1">
-        <v>67</v>
+        <v>172</v>
       </c>
       <c r="B38" t="s">
         <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="D38" t="s">
-        <v>202</v>
+        <v>368</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1">
-        <v>66</v>
+        <v>171</v>
       </c>
       <c r="B39" t="s">
         <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>195</v>
       </c>
       <c r="D39" t="s">
-        <v>203</v>
+        <v>369</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="B40" t="s">
         <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>196</v>
       </c>
       <c r="D40" t="s">
-        <v>204</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="B41" t="s">
         <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>197</v>
       </c>
       <c r="D41" t="s">
-        <v>205</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1">
-        <v>63</v>
+        <v>168</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
+        <v>198</v>
       </c>
       <c r="D42" t="s">
-        <v>206</v>
+        <v>372</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>118</v>
+        <v>193</v>
       </c>
       <c r="D43" t="s">
-        <v>207</v>
+        <v>373</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1">
-        <v>61</v>
+        <v>166</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>119</v>
+        <v>199</v>
       </c>
       <c r="D44" t="s">
-        <v>208</v>
+        <v>374</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>97</v>
+        <v>198</v>
       </c>
       <c r="D45" t="s">
-        <v>209</v>
+        <v>375</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>119</v>
+        <v>193</v>
       </c>
       <c r="D46" t="s">
-        <v>210</v>
+        <v>376</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1">
-        <v>58</v>
+        <v>163</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>119</v>
+        <v>200</v>
       </c>
       <c r="D47" t="s">
-        <v>211</v>
+        <v>377</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>119</v>
+        <v>201</v>
       </c>
       <c r="D48" t="s">
-        <v>212</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>120</v>
+        <v>202</v>
       </c>
       <c r="D49" t="s">
-        <v>213</v>
+        <v>379</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="B50" t="s">
         <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>119</v>
+        <v>203</v>
       </c>
       <c r="D50" t="s">
-        <v>214</v>
+        <v>380</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1">
-        <v>54</v>
+        <v>159</v>
       </c>
       <c r="B51" t="s">
         <v>46</v>
       </c>
       <c r="C51" t="s">
-        <v>119</v>
+        <v>204</v>
       </c>
       <c r="D51" t="s">
-        <v>215</v>
+        <v>381</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C52" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="D52" t="s">
-        <v>216</v>
+        <v>382</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1">
-        <v>52</v>
+        <v>157</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C53" t="s">
-        <v>122</v>
+        <v>206</v>
       </c>
       <c r="D53" t="s">
-        <v>217</v>
+        <v>383</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1">
-        <v>51</v>
+        <v>156</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="C54" t="s">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="D54" t="s">
-        <v>218</v>
+        <v>384</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1">
+        <v>155</v>
+      </c>
+      <c r="B55" t="s">
         <v>50</v>
       </c>
-      <c r="B55" t="s">
-        <v>47</v>
-      </c>
       <c r="C55" t="s">
-        <v>124</v>
+        <v>207</v>
       </c>
       <c r="D55" t="s">
-        <v>219</v>
+        <v>385</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c r="D56" t="s">
-        <v>220</v>
+        <v>386</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1">
-        <v>48</v>
+        <v>153</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c r="D57" t="s">
-        <v>221</v>
+        <v>387</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="B58" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C58" t="s">
-        <v>126</v>
+        <v>208</v>
       </c>
       <c r="D58" t="s">
-        <v>222</v>
+        <v>388</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="B59" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C59" t="s">
-        <v>127</v>
+        <v>209</v>
       </c>
       <c r="D59" t="s">
-        <v>223</v>
+        <v>389</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="B60" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C60" t="s">
-        <v>124</v>
+        <v>210</v>
       </c>
       <c r="D60" t="s">
-        <v>224</v>
+        <v>390</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="B61" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C61" t="s">
-        <v>128</v>
+        <v>211</v>
       </c>
       <c r="D61" t="s">
-        <v>225</v>
+        <v>391</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="B62" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C62" t="s">
-        <v>129</v>
+        <v>212</v>
       </c>
       <c r="D62" t="s">
-        <v>226</v>
+        <v>392</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="B63" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C63" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="D63" t="s">
-        <v>227</v>
+        <v>393</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="B64" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C64" t="s">
-        <v>130</v>
+        <v>213</v>
       </c>
       <c r="D64" t="s">
-        <v>228</v>
+        <v>394</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="B65" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C65" t="s">
-        <v>131</v>
+        <v>214</v>
       </c>
       <c r="D65" t="s">
-        <v>229</v>
+        <v>395</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="B66" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C66" t="s">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c r="D66" t="s">
-        <v>230</v>
+        <v>396</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="C67" t="s">
-        <v>132</v>
+        <v>216</v>
       </c>
       <c r="D67" t="s">
-        <v>231</v>
+        <v>397</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="B68" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C68" t="s">
-        <v>133</v>
+        <v>217</v>
       </c>
       <c r="D68" t="s">
-        <v>232</v>
+        <v>398</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="B69" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C69" t="s">
-        <v>134</v>
+        <v>218</v>
       </c>
       <c r="D69" t="s">
-        <v>233</v>
+        <v>399</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="C70" t="s">
-        <v>135</v>
+        <v>219</v>
       </c>
       <c r="D70" t="s">
-        <v>234</v>
+        <v>400</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="B71" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C71" t="s">
-        <v>136</v>
+        <v>220</v>
       </c>
       <c r="D71" t="s">
-        <v>235</v>
+        <v>401</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="B72" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="C72" t="s">
-        <v>137</v>
+        <v>221</v>
       </c>
       <c r="D72" t="s">
-        <v>236</v>
+        <v>402</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="B73" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C73" t="s">
-        <v>138</v>
+        <v>222</v>
       </c>
       <c r="D73" t="s">
-        <v>237</v>
+        <v>403</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="B74" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C74" t="s">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="D74" t="s">
-        <v>238</v>
+        <v>404</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="B75" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C75" t="s">
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="D75" t="s">
-        <v>239</v>
+        <v>405</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="B76" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="C76" t="s">
-        <v>141</v>
+        <v>224</v>
       </c>
       <c r="D76" t="s">
-        <v>240</v>
+        <v>406</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="B77" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C77" t="s">
-        <v>142</v>
+        <v>225</v>
       </c>
       <c r="D77" t="s">
-        <v>241</v>
+        <v>407</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="C78" t="s">
-        <v>143</v>
+        <v>226</v>
       </c>
       <c r="D78" t="s">
-        <v>242</v>
+        <v>408</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="B79" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C79" t="s">
-        <v>144</v>
+        <v>227</v>
       </c>
       <c r="D79" t="s">
-        <v>243</v>
+        <v>409</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="B80" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C80" t="s">
-        <v>145</v>
+        <v>228</v>
       </c>
       <c r="D80" t="s">
-        <v>244</v>
+        <v>410</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="B81" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C81" t="s">
-        <v>143</v>
+        <v>208</v>
       </c>
       <c r="D81" t="s">
-        <v>245</v>
+        <v>411</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="B82" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C82" t="s">
-        <v>131</v>
+        <v>229</v>
       </c>
       <c r="D82" t="s">
-        <v>246</v>
+        <v>412</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="B83" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C83" t="s">
-        <v>146</v>
+        <v>230</v>
       </c>
       <c r="D83" t="s">
-        <v>247</v>
+        <v>413</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="B84" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C84" t="s">
-        <v>147</v>
+        <v>225</v>
       </c>
       <c r="D84" t="s">
-        <v>248</v>
+        <v>414</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="1">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="B85" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C85" t="s">
-        <v>148</v>
+        <v>231</v>
       </c>
       <c r="D85" t="s">
-        <v>249</v>
+        <v>415</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="B86" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C86" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="D86" t="s">
-        <v>250</v>
+        <v>416</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="B87" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C87" t="s">
-        <v>150</v>
+        <v>232</v>
       </c>
       <c r="D87" t="s">
-        <v>251</v>
+        <v>417</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="B88" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C88" t="s">
-        <v>149</v>
+        <v>233</v>
       </c>
       <c r="D88" t="s">
-        <v>252</v>
+        <v>418</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="B89" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="C89" t="s">
-        <v>151</v>
+        <v>234</v>
       </c>
       <c r="D89" t="s">
-        <v>253</v>
+        <v>419</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="B90" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>152</v>
+        <v>233</v>
       </c>
       <c r="D90" t="s">
-        <v>254</v>
+        <v>420</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="B91" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="C91" t="s">
-        <v>153</v>
+        <v>235</v>
       </c>
       <c r="D91" t="s">
-        <v>255</v>
+        <v>421</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="B92" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C92" t="s">
-        <v>154</v>
+        <v>236</v>
       </c>
       <c r="D92" t="s">
-        <v>256</v>
+        <v>422</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="1">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="B93" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="C93" t="s">
-        <v>153</v>
+        <v>237</v>
       </c>
       <c r="D93" t="s">
-        <v>257</v>
+        <v>423</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="B94" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C94" t="s">
-        <v>155</v>
+        <v>238</v>
       </c>
       <c r="D94" t="s">
-        <v>258</v>
+        <v>424</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="B95" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C95" t="s">
-        <v>156</v>
+        <v>239</v>
       </c>
       <c r="D95" t="s">
-        <v>259</v>
+        <v>425</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="B96" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="C96" t="s">
-        <v>157</v>
+        <v>240</v>
       </c>
       <c r="D96" t="s">
-        <v>260</v>
+        <v>426</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="B97" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C97" t="s">
-        <v>158</v>
+        <v>241</v>
       </c>
       <c r="D97" t="s">
-        <v>261</v>
+        <v>427</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="B98" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C98" t="s">
-        <v>159</v>
+        <v>242</v>
       </c>
       <c r="D98" t="s">
-        <v>262</v>
+        <v>428</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="B99" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C99" t="s">
-        <v>160</v>
+        <v>232</v>
       </c>
       <c r="D99" t="s">
-        <v>263</v>
+        <v>429</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="B100" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
-        <v>161</v>
+        <v>243</v>
       </c>
       <c r="D100" t="s">
-        <v>264</v>
+        <v>430</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="1">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="B101" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C101" t="s">
-        <v>162</v>
+        <v>244</v>
       </c>
       <c r="D101" t="s">
-        <v>265</v>
+        <v>431</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="1">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="B102" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C102" t="s">
-        <v>163</v>
+        <v>245</v>
       </c>
       <c r="D102" t="s">
-        <v>266</v>
+        <v>432</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="B103" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C103" t="s">
-        <v>164</v>
+        <v>246</v>
       </c>
       <c r="D103" t="s">
-        <v>267</v>
+        <v>433</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C104" t="s">
-        <v>165</v>
+        <v>247</v>
       </c>
       <c r="D104" t="s">
-        <v>268</v>
+        <v>434</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="1">
+        <v>105</v>
+      </c>
+      <c r="B105" t="s">
+        <v>93</v>
+      </c>
+      <c r="C105" t="s">
+        <v>248</v>
+      </c>
+      <c r="D105" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>94</v>
+      </c>
+      <c r="C106" t="s">
+        <v>244</v>
+      </c>
+      <c r="D106" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1">
+        <v>103</v>
+      </c>
+      <c r="B107" t="s">
+        <v>95</v>
+      </c>
+      <c r="C107" t="s">
+        <v>249</v>
+      </c>
+      <c r="D107" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1">
+        <v>102</v>
+      </c>
+      <c r="B108" t="s">
+        <v>96</v>
+      </c>
+      <c r="C108" t="s">
+        <v>250</v>
+      </c>
+      <c r="D108" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1">
+        <v>101</v>
+      </c>
+      <c r="B109" t="s">
+        <v>97</v>
+      </c>
+      <c r="C109" t="s">
+        <v>251</v>
+      </c>
+      <c r="D109" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1">
+        <v>100</v>
+      </c>
+      <c r="B110" t="s">
+        <v>98</v>
+      </c>
+      <c r="C110" t="s">
+        <v>252</v>
+      </c>
+      <c r="D110" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1">
+        <v>99</v>
+      </c>
+      <c r="B111" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" t="s">
+        <v>253</v>
+      </c>
+      <c r="D111" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1">
+        <v>98</v>
+      </c>
+      <c r="B112" t="s">
+        <v>99</v>
+      </c>
+      <c r="C112" t="s">
+        <v>254</v>
+      </c>
+      <c r="D112" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
+        <v>97</v>
+      </c>
+      <c r="B113" t="s">
+        <v>100</v>
+      </c>
+      <c r="C113" t="s">
+        <v>255</v>
+      </c>
+      <c r="D113" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
+        <v>96</v>
+      </c>
+      <c r="B114" t="s">
+        <v>101</v>
+      </c>
+      <c r="C114" t="s">
+        <v>256</v>
+      </c>
+      <c r="D114" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
+        <v>95</v>
+      </c>
+      <c r="B115" t="s">
+        <v>102</v>
+      </c>
+      <c r="C115" t="s">
+        <v>257</v>
+      </c>
+      <c r="D115" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
+        <v>94</v>
+      </c>
+      <c r="B116" t="s">
+        <v>103</v>
+      </c>
+      <c r="C116" t="s">
+        <v>258</v>
+      </c>
+      <c r="D116" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
+        <v>93</v>
+      </c>
+      <c r="B117" t="s">
+        <v>104</v>
+      </c>
+      <c r="C117" t="s">
+        <v>259</v>
+      </c>
+      <c r="D117" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
+        <v>92</v>
+      </c>
+      <c r="B118" t="s">
+        <v>105</v>
+      </c>
+      <c r="C118" t="s">
+        <v>260</v>
+      </c>
+      <c r="D118" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
+        <v>91</v>
+      </c>
+      <c r="B119" t="s">
+        <v>20</v>
+      </c>
+      <c r="C119" t="s">
+        <v>261</v>
+      </c>
+      <c r="D119" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
+        <v>90</v>
+      </c>
+      <c r="B120" t="s">
+        <v>106</v>
+      </c>
+      <c r="C120" t="s">
+        <v>252</v>
+      </c>
+      <c r="D120" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
+        <v>89</v>
+      </c>
+      <c r="B121" t="s">
+        <v>107</v>
+      </c>
+      <c r="C121" t="s">
+        <v>262</v>
+      </c>
+      <c r="D121" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
+        <v>88</v>
+      </c>
+      <c r="B122" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" t="s">
+        <v>263</v>
+      </c>
+      <c r="D122" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
+        <v>87</v>
+      </c>
+      <c r="B123" t="s">
+        <v>108</v>
+      </c>
+      <c r="C123" t="s">
+        <v>264</v>
+      </c>
+      <c r="D123" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
+        <v>86</v>
+      </c>
+      <c r="B124" t="s">
+        <v>109</v>
+      </c>
+      <c r="C124" t="s">
+        <v>251</v>
+      </c>
+      <c r="D124" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
+        <v>85</v>
+      </c>
+      <c r="B125" t="s">
+        <v>110</v>
+      </c>
+      <c r="C125" t="s">
+        <v>265</v>
+      </c>
+      <c r="D125" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
+        <v>84</v>
+      </c>
+      <c r="B126" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" t="s">
+        <v>266</v>
+      </c>
+      <c r="D126" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
+        <v>83</v>
+      </c>
+      <c r="B127" t="s">
+        <v>111</v>
+      </c>
+      <c r="C127" t="s">
+        <v>267</v>
+      </c>
+      <c r="D127" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
+        <v>82</v>
+      </c>
+      <c r="B128" t="s">
+        <v>112</v>
+      </c>
+      <c r="C128" t="s">
+        <v>268</v>
+      </c>
+      <c r="D128" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
+        <v>81</v>
+      </c>
+      <c r="B129" t="s">
+        <v>20</v>
+      </c>
+      <c r="C129" t="s">
+        <v>269</v>
+      </c>
+      <c r="D129" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
+        <v>80</v>
+      </c>
+      <c r="B130" t="s">
+        <v>49</v>
+      </c>
+      <c r="C130" t="s">
+        <v>270</v>
+      </c>
+      <c r="D130" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
+        <v>79</v>
+      </c>
+      <c r="B131" t="s">
+        <v>113</v>
+      </c>
+      <c r="C131" t="s">
+        <v>271</v>
+      </c>
+      <c r="D131" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
+        <v>78</v>
+      </c>
+      <c r="B132" t="s">
+        <v>110</v>
+      </c>
+      <c r="C132" t="s">
+        <v>272</v>
+      </c>
+      <c r="D132" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
+        <v>77</v>
+      </c>
+      <c r="B133" t="s">
+        <v>114</v>
+      </c>
+      <c r="C133" t="s">
+        <v>273</v>
+      </c>
+      <c r="D133" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
+        <v>76</v>
+      </c>
+      <c r="B134" t="s">
+        <v>115</v>
+      </c>
+      <c r="C134" t="s">
+        <v>271</v>
+      </c>
+      <c r="D134" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
+        <v>75</v>
+      </c>
+      <c r="B135" t="s">
+        <v>116</v>
+      </c>
+      <c r="C135" t="s">
+        <v>274</v>
+      </c>
+      <c r="D135" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
+        <v>74</v>
+      </c>
+      <c r="B136" t="s">
+        <v>117</v>
+      </c>
+      <c r="C136" t="s">
+        <v>275</v>
+      </c>
+      <c r="D136" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
+        <v>73</v>
+      </c>
+      <c r="B137" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137" t="s">
+        <v>276</v>
+      </c>
+      <c r="D137" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
+        <v>72</v>
+      </c>
+      <c r="B138" t="s">
+        <v>6</v>
+      </c>
+      <c r="C138" t="s">
+        <v>276</v>
+      </c>
+      <c r="D138" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
+        <v>71</v>
+      </c>
+      <c r="B139" t="s">
+        <v>118</v>
+      </c>
+      <c r="C139" t="s">
+        <v>275</v>
+      </c>
+      <c r="D139" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
+        <v>70</v>
+      </c>
+      <c r="B140" t="s">
+        <v>79</v>
+      </c>
+      <c r="C140" t="s">
+        <v>277</v>
+      </c>
+      <c r="D140" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
+        <v>69</v>
+      </c>
+      <c r="B141" t="s">
+        <v>119</v>
+      </c>
+      <c r="C141" t="s">
+        <v>278</v>
+      </c>
+      <c r="D141" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
+        <v>68</v>
+      </c>
+      <c r="B142" t="s">
+        <v>120</v>
+      </c>
+      <c r="C142" t="s">
+        <v>279</v>
+      </c>
+      <c r="D142" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
+        <v>67</v>
+      </c>
+      <c r="B143" t="s">
+        <v>121</v>
+      </c>
+      <c r="C143" t="s">
+        <v>280</v>
+      </c>
+      <c r="D143" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
+        <v>66</v>
+      </c>
+      <c r="B144" t="s">
+        <v>122</v>
+      </c>
+      <c r="C144" t="s">
+        <v>281</v>
+      </c>
+      <c r="D144" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
+        <v>65</v>
+      </c>
+      <c r="B145" t="s">
+        <v>123</v>
+      </c>
+      <c r="C145" t="s">
+        <v>282</v>
+      </c>
+      <c r="D145" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
+        <v>64</v>
+      </c>
+      <c r="B146" t="s">
+        <v>124</v>
+      </c>
+      <c r="C146" t="s">
+        <v>283</v>
+      </c>
+      <c r="D146" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
+        <v>63</v>
+      </c>
+      <c r="B147" t="s">
+        <v>20</v>
+      </c>
+      <c r="C147" t="s">
+        <v>284</v>
+      </c>
+      <c r="D147" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
+        <v>62</v>
+      </c>
+      <c r="B148" t="s">
+        <v>14</v>
+      </c>
+      <c r="C148" t="s">
+        <v>285</v>
+      </c>
+      <c r="D148" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
+        <v>61</v>
+      </c>
+      <c r="B149" t="s">
+        <v>125</v>
+      </c>
+      <c r="C149" t="s">
+        <v>286</v>
+      </c>
+      <c r="D149" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
+        <v>60</v>
+      </c>
+      <c r="B150" t="s">
+        <v>126</v>
+      </c>
+      <c r="C150" t="s">
+        <v>264</v>
+      </c>
+      <c r="D150" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
+        <v>59</v>
+      </c>
+      <c r="B151" t="s">
+        <v>127</v>
+      </c>
+      <c r="C151" t="s">
+        <v>286</v>
+      </c>
+      <c r="D151" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
+        <v>58</v>
+      </c>
+      <c r="B152" t="s">
+        <v>128</v>
+      </c>
+      <c r="C152" t="s">
+        <v>286</v>
+      </c>
+      <c r="D152" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
+        <v>57</v>
+      </c>
+      <c r="B153" t="s">
+        <v>129</v>
+      </c>
+      <c r="C153" t="s">
+        <v>286</v>
+      </c>
+      <c r="D153" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
+        <v>56</v>
+      </c>
+      <c r="B154" t="s">
+        <v>130</v>
+      </c>
+      <c r="C154" t="s">
+        <v>287</v>
+      </c>
+      <c r="D154" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
+        <v>55</v>
+      </c>
+      <c r="B155" t="s">
+        <v>131</v>
+      </c>
+      <c r="C155" t="s">
+        <v>286</v>
+      </c>
+      <c r="D155" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
+        <v>54</v>
+      </c>
+      <c r="B156" t="s">
+        <v>132</v>
+      </c>
+      <c r="C156" t="s">
+        <v>286</v>
+      </c>
+      <c r="D156" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
+        <v>53</v>
+      </c>
+      <c r="B157" t="s">
+        <v>13</v>
+      </c>
+      <c r="C157" t="s">
+        <v>288</v>
+      </c>
+      <c r="D157" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
+        <v>52</v>
+      </c>
+      <c r="B158" t="s">
+        <v>110</v>
+      </c>
+      <c r="C158" t="s">
+        <v>289</v>
+      </c>
+      <c r="D158" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
+        <v>51</v>
+      </c>
+      <c r="B159" t="s">
+        <v>20</v>
+      </c>
+      <c r="C159" t="s">
+        <v>290</v>
+      </c>
+      <c r="D159" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
+        <v>50</v>
+      </c>
+      <c r="B160" t="s">
+        <v>133</v>
+      </c>
+      <c r="C160" t="s">
+        <v>291</v>
+      </c>
+      <c r="D160" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
+        <v>49</v>
+      </c>
+      <c r="B161" t="s">
+        <v>134</v>
+      </c>
+      <c r="C161" t="s">
+        <v>292</v>
+      </c>
+      <c r="D161" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
+        <v>48</v>
+      </c>
+      <c r="B162" t="s">
+        <v>105</v>
+      </c>
+      <c r="C162" t="s">
+        <v>293</v>
+      </c>
+      <c r="D162" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
+        <v>47</v>
+      </c>
+      <c r="B163" t="s">
+        <v>135</v>
+      </c>
+      <c r="C163" t="s">
+        <v>293</v>
+      </c>
+      <c r="D163" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
+        <v>46</v>
+      </c>
+      <c r="B164" t="s">
+        <v>136</v>
+      </c>
+      <c r="C164" t="s">
+        <v>294</v>
+      </c>
+      <c r="D164" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
+        <v>45</v>
+      </c>
+      <c r="B165" t="s">
+        <v>137</v>
+      </c>
+      <c r="C165" t="s">
+        <v>291</v>
+      </c>
+      <c r="D165" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
+        <v>44</v>
+      </c>
+      <c r="B166" t="s">
+        <v>88</v>
+      </c>
+      <c r="C166" t="s">
+        <v>295</v>
+      </c>
+      <c r="D166" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
+        <v>43</v>
+      </c>
+      <c r="B167" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" t="s">
+        <v>296</v>
+      </c>
+      <c r="D167" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
+        <v>42</v>
+      </c>
+      <c r="B168" t="s">
+        <v>42</v>
+      </c>
+      <c r="C168" t="s">
+        <v>297</v>
+      </c>
+      <c r="D168" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
+        <v>41</v>
+      </c>
+      <c r="B169" t="s">
+        <v>38</v>
+      </c>
+      <c r="C169" t="s">
+        <v>297</v>
+      </c>
+      <c r="D169" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
+        <v>40</v>
+      </c>
+      <c r="B170" t="s">
+        <v>138</v>
+      </c>
+      <c r="C170" t="s">
+        <v>298</v>
+      </c>
+      <c r="D170" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
+        <v>39</v>
+      </c>
+      <c r="B171" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171" t="s">
+        <v>297</v>
+      </c>
+      <c r="D171" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
+        <v>38</v>
+      </c>
+      <c r="B172" t="s">
+        <v>20</v>
+      </c>
+      <c r="C172" t="s">
+        <v>299</v>
+      </c>
+      <c r="D172" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
+        <v>37</v>
+      </c>
+      <c r="B173" t="s">
+        <v>139</v>
+      </c>
+      <c r="C173" t="s">
+        <v>300</v>
+      </c>
+      <c r="D173" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
+        <v>36</v>
+      </c>
+      <c r="B174" t="s">
+        <v>38</v>
+      </c>
+      <c r="C174" t="s">
+        <v>301</v>
+      </c>
+      <c r="D174" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
+        <v>35</v>
+      </c>
+      <c r="B175" t="s">
+        <v>6</v>
+      </c>
+      <c r="C175" t="s">
+        <v>302</v>
+      </c>
+      <c r="D175" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
+        <v>34</v>
+      </c>
+      <c r="B176" t="s">
+        <v>140</v>
+      </c>
+      <c r="C176" t="s">
+        <v>303</v>
+      </c>
+      <c r="D176" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
+        <v>33</v>
+      </c>
+      <c r="B177" t="s">
+        <v>14</v>
+      </c>
+      <c r="C177" t="s">
+        <v>304</v>
+      </c>
+      <c r="D177" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
+        <v>32</v>
+      </c>
+      <c r="B178" t="s">
+        <v>141</v>
+      </c>
+      <c r="C178" t="s">
+        <v>305</v>
+      </c>
+      <c r="D178" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
+        <v>31</v>
+      </c>
+      <c r="B179" t="s">
+        <v>142</v>
+      </c>
+      <c r="C179" t="s">
+        <v>306</v>
+      </c>
+      <c r="D179" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
+        <v>30</v>
+      </c>
+      <c r="B180" t="s">
+        <v>143</v>
+      </c>
+      <c r="C180" t="s">
+        <v>307</v>
+      </c>
+      <c r="D180" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1">
+        <v>29</v>
+      </c>
+      <c r="B181" t="s">
+        <v>110</v>
+      </c>
+      <c r="C181" t="s">
+        <v>308</v>
+      </c>
+      <c r="D181" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
+        <v>28</v>
+      </c>
+      <c r="B182" t="s">
+        <v>144</v>
+      </c>
+      <c r="C182" t="s">
+        <v>309</v>
+      </c>
+      <c r="D182" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
+        <v>27</v>
+      </c>
+      <c r="B183" t="s">
+        <v>20</v>
+      </c>
+      <c r="C183" t="s">
+        <v>310</v>
+      </c>
+      <c r="D183" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
+        <v>26</v>
+      </c>
+      <c r="B184" t="s">
+        <v>38</v>
+      </c>
+      <c r="C184" t="s">
+        <v>311</v>
+      </c>
+      <c r="D184" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
+        <v>25</v>
+      </c>
+      <c r="B185" t="s">
+        <v>145</v>
+      </c>
+      <c r="C185" t="s">
+        <v>312</v>
+      </c>
+      <c r="D185" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
+        <v>24</v>
+      </c>
+      <c r="B186" t="s">
+        <v>83</v>
+      </c>
+      <c r="C186" t="s">
+        <v>310</v>
+      </c>
+      <c r="D186" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
+        <v>23</v>
+      </c>
+      <c r="B187" t="s">
+        <v>146</v>
+      </c>
+      <c r="C187" t="s">
+        <v>298</v>
+      </c>
+      <c r="D187" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
+        <v>22</v>
+      </c>
+      <c r="B188" t="s">
+        <v>38</v>
+      </c>
+      <c r="C188" t="s">
+        <v>313</v>
+      </c>
+      <c r="D188" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
+        <v>21</v>
+      </c>
+      <c r="B189" t="s">
+        <v>39</v>
+      </c>
+      <c r="C189" t="s">
+        <v>314</v>
+      </c>
+      <c r="D189" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
+        <v>20</v>
+      </c>
+      <c r="B190" t="s">
+        <v>147</v>
+      </c>
+      <c r="C190" t="s">
+        <v>315</v>
+      </c>
+      <c r="D190" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
+        <v>19</v>
+      </c>
+      <c r="B191" t="s">
+        <v>38</v>
+      </c>
+      <c r="C191" t="s">
+        <v>316</v>
+      </c>
+      <c r="D191" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
+        <v>18</v>
+      </c>
+      <c r="B192" t="s">
+        <v>148</v>
+      </c>
+      <c r="C192" t="s">
+        <v>317</v>
+      </c>
+      <c r="D192" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
+        <v>17</v>
+      </c>
+      <c r="B193" t="s">
+        <v>20</v>
+      </c>
+      <c r="C193" t="s">
+        <v>316</v>
+      </c>
+      <c r="D193" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
+        <v>16</v>
+      </c>
+      <c r="B194" t="s">
+        <v>149</v>
+      </c>
+      <c r="C194" t="s">
+        <v>318</v>
+      </c>
+      <c r="D194" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
+        <v>15</v>
+      </c>
+      <c r="B195" t="s">
+        <v>150</v>
+      </c>
+      <c r="C195" t="s">
+        <v>319</v>
+      </c>
+      <c r="D195" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
+        <v>14</v>
+      </c>
+      <c r="B196" t="s">
+        <v>151</v>
+      </c>
+      <c r="C196" t="s">
+        <v>320</v>
+      </c>
+      <c r="D196" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
+        <v>13</v>
+      </c>
+      <c r="B197" t="s">
+        <v>152</v>
+      </c>
+      <c r="C197" t="s">
+        <v>321</v>
+      </c>
+      <c r="D197" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
+        <v>12</v>
+      </c>
+      <c r="B198" t="s">
+        <v>20</v>
+      </c>
+      <c r="C198" t="s">
+        <v>320</v>
+      </c>
+      <c r="D198" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
+        <v>11</v>
+      </c>
+      <c r="B199" t="s">
+        <v>153</v>
+      </c>
+      <c r="C199" t="s">
+        <v>322</v>
+      </c>
+      <c r="D199" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
+        <v>10</v>
+      </c>
+      <c r="B200" t="s">
+        <v>92</v>
+      </c>
+      <c r="C200" t="s">
+        <v>323</v>
+      </c>
+      <c r="D200" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
+        <v>9</v>
+      </c>
+      <c r="B201" t="s">
+        <v>79</v>
+      </c>
+      <c r="C201" t="s">
+        <v>324</v>
+      </c>
+      <c r="D201" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1">
+        <v>8</v>
+      </c>
+      <c r="B202" t="s">
+        <v>154</v>
+      </c>
+      <c r="C202" t="s">
+        <v>325</v>
+      </c>
+      <c r="D202" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
+        <v>7</v>
+      </c>
+      <c r="B203" t="s">
+        <v>155</v>
+      </c>
+      <c r="C203" t="s">
+        <v>326</v>
+      </c>
+      <c r="D203" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
+        <v>6</v>
+      </c>
+      <c r="B204" t="s">
+        <v>156</v>
+      </c>
+      <c r="C204" t="s">
+        <v>327</v>
+      </c>
+      <c r="D204" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
+        <v>5</v>
+      </c>
+      <c r="B205" t="s">
+        <v>88</v>
+      </c>
+      <c r="C205" t="s">
+        <v>328</v>
+      </c>
+      <c r="D205" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
+        <v>4</v>
+      </c>
+      <c r="B206" t="s">
+        <v>157</v>
+      </c>
+      <c r="C206" t="s">
+        <v>329</v>
+      </c>
+      <c r="D206" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
+        <v>3</v>
+      </c>
+      <c r="B207" t="s">
+        <v>158</v>
+      </c>
+      <c r="C207" t="s">
+        <v>330</v>
+      </c>
+      <c r="D207" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
+        <v>2</v>
+      </c>
+      <c r="B208" t="s">
+        <v>105</v>
+      </c>
+      <c r="C208" t="s">
+        <v>331</v>
+      </c>
+      <c r="D208" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
+        <v>1</v>
+      </c>
+      <c r="B209" t="s">
+        <v>159</v>
+      </c>
+      <c r="C209" t="s">
+        <v>332</v>
+      </c>
+      <c r="D209" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
         <v>0</v>
       </c>
-      <c r="B105" t="s">
-        <v>81</v>
-      </c>
-      <c r="C105" t="s">
-        <v>166</v>
-      </c>
-      <c r="D105" t="s">
-        <v>269</v>
+      <c r="B210" t="s">
+        <v>160</v>
+      </c>
+      <c r="C210" t="s">
+        <v>333</v>
+      </c>
+      <c r="D210" t="s">
+        <v>539</v>
       </c>
     </row>
   </sheetData>

--- a/reversed_tweets.xlsx
+++ b/reversed_tweets.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="100">
   <si>
     <t>Texto del tweet</t>
   </si>
@@ -25,7 +25,76 @@
     <t>Fecha</t>
   </si>
   <si>
+    <t>@WHO is as guilty as #China un spreading the #ChineseVirus (also known as #Covid_19 and #Corona because it partnere… https://t.co/Mxy5pekDLQ</t>
+  </si>
+  <si>
+    <t>@WHO said it the #USA is politicizing this virus and it will be deadly however the lunatic @realDonaldTrump at the… https://t.co/dPaDX7m5Nh</t>
+  </si>
+  <si>
+    <t>RT @WHO: As we mark 100 days since the first case of what we now call #COVID19 now was notified to WHO, here is the timeline of key events…</t>
+  </si>
+  <si>
+    <t>@WHO why #WHO silent on other pathy... is #WHO feed by pharmacy company.... why so much confusion??</t>
+  </si>
+  <si>
+    <t>RT @WHO: “Sometimes when we are feeling very afraid or unsafe, it can help to imagine a safe place in our minds.". Ario asked the children…</t>
+  </si>
+  <si>
+    <t>@WHO You globalist losers fvcked up big. I’m sure you don’t care how much blood you have on your hands. I just hope… https://t.co/IuyA39LJxF</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros https://t.co/fihVCIwoaH</t>
+  </si>
+  <si>
+    <t>@WHO situation could have been better if this WuhanHealthOrganisation had played its role instead safeguarding and… https://t.co/TSGrGMJnjL</t>
+  </si>
+  <si>
+    <t>@WHO Tienamen square Tienamen square Tienamen square Tienamen square Tienamen square Tienamen square Tienamen square</t>
+  </si>
+  <si>
+    <t>@WHO  #LockThemAllUp racketeering + crimes against humanity</t>
+  </si>
+  <si>
+    <t>RT @WHO: "Our singular focus is on working to serve all people to save lives and stop the #COVID19 pandemic – stop this dangerous enemy"-@D…</t>
+  </si>
+  <si>
     <t>RT @WHO: Preliminary investigations conducted by the Chinese authorities have found no clear evidence of human-to-human transmission of the…</t>
+  </si>
+  <si>
+    <t>RT @WHO: 📚 A new story book “My Hero is You, How kids can fight COVID-19!” - aimed at children aged 6-11 years old, is released today to he…</t>
+  </si>
+  <si>
+    <t>@WHO When will you mark the anniversary in which China bought you? #WHOLiedPeopleDied</t>
+  </si>
+  <si>
+    <t>@WHO @tonyashai @kavita_krishnan @ashoswai @arjunsethi81 #KashmirCovid19</t>
+  </si>
+  <si>
+    <t>@WHO @WHOThailand @WHOSEARO @WHOWPRO The world ain't for W.H.O,AMERICANS,or CHINA...The world is for PEACE..lets al… https://t.co/WQvmZYka2q</t>
+  </si>
+  <si>
+    <t>@WHO Correction it was 102 days ago Taiwan alerted you first why did you ignore their notification?</t>
+  </si>
+  <si>
+    <t>RT @WHO: The most common symptoms of #COVID19 are fever, dry cough, tiredness.
+Some patients may have:
+-aches &amp;amp; pains
+-nasal congestion
+-ru…</t>
+  </si>
+  <si>
+    <t>@WHO how much those commie bastards payin you?</t>
+  </si>
+  <si>
+    <t>@WHO https://t.co/bZDPPfq8gD
+👆
+What is this hypocrisy ? 
+@WHO @DrTedros (puppet of China) 
+@MOFA_Taiwan 
+Taiwan isn… https://t.co/oCEBVmvK8m</t>
+  </si>
+  <si>
+    <t>@WHO You lying pieces of dogshit!  May you all die extremely painful deaths.</t>
   </si>
   <si>
     <t>@WHO 
@@ -59,6 +128,78 @@
     <t>@WHO Propaganda to make @WHO look like they did their job. Shame on YOU</t>
   </si>
   <si>
+    <t>vks_27</t>
+  </si>
+  <si>
+    <t>cldlop</t>
+  </si>
+  <si>
+    <t>92Rakesh2</t>
+  </si>
+  <si>
+    <t>ajeydada</t>
+  </si>
+  <si>
+    <t>LuAnnWHNP</t>
+  </si>
+  <si>
+    <t>BeachBumLolly</t>
+  </si>
+  <si>
+    <t>Nateel_29</t>
+  </si>
+  <si>
+    <t>Rajantweets_</t>
+  </si>
+  <si>
+    <t>thefirestarte10</t>
+  </si>
+  <si>
+    <t>NooneinH</t>
+  </si>
+  <si>
+    <t>NahalRashpal</t>
+  </si>
+  <si>
+    <t>IXcatz</t>
+  </si>
+  <si>
+    <t>PBardzik</t>
+  </si>
+  <si>
+    <t>AllenFinley</t>
+  </si>
+  <si>
+    <t>chungkingxprez</t>
+  </si>
+  <si>
+    <t>rosemarykashmir</t>
+  </si>
+  <si>
+    <t>kofi_barcelona</t>
+  </si>
+  <si>
+    <t>bsa3977</t>
+  </si>
+  <si>
+    <t>akaMartchoin</t>
+  </si>
+  <si>
+    <t>ryanwhelan22</t>
+  </si>
+  <si>
+    <t>Palitodeazucar</t>
+  </si>
+  <si>
+    <t>nadiahishamsaid</t>
+  </si>
+  <si>
+    <t>AnshumanPratik</t>
+  </si>
+  <si>
+    <t>enki0999</t>
+  </si>
+  <si>
     <t>bmx71054548</t>
   </si>
   <si>
@@ -84,6 +225,78 @@
   </si>
   <si>
     <t>LyndaMarie8888</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:05:05 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:04:59 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:04:53 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:04:34 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:04:09 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:02:47 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:02:37 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:02:34 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:01:55 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:01:50 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 01:57:36 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 01:56:58 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 01:56:48 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 01:56:45 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 01:56:18 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 01:55:55 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 01:55:38 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 01:55:11 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 01:54:52 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 01:54:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 01:53:26 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 01:53:09 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 01:52:51 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 01:52:39 +0000 2020</t>
   </si>
   <si>
     <t>Fri Apr 10 01:38:51 +0000 2020</t>
@@ -471,7 +684,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -490,142 +703,478 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
         <v>21</v>
       </c>
-      <c r="D11" t="s">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
         <v>31</v>
+      </c>
+      <c r="C34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/reversed_tweets.xlsx
+++ b/reversed_tweets.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="278">
   <si>
     <t>Texto del tweet</t>
   </si>
@@ -25,15 +25,227 @@
     <t>Fecha</t>
   </si>
   <si>
+    <t>RT @WHO: Media briefing on #COVID19 with @DrTedros. #coronavirus https://t.co/SBjaRtl0dh</t>
+  </si>
+  <si>
+    <t>RT @WHO: "Today I convened a meeting of the Emergency Committee on #Ebola in #DRC. After 52 days without a case, surveillance and response…</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros CCP is NOT in this together! They started it!</t>
+  </si>
+  <si>
+    <t>RT @WHO: "I know that some countries are already planning the transition out of #StayHome restrictions.
+WHO wants to see restrictions lift…</t>
+  </si>
+  <si>
+    <t>RT @WHO: "At the same time, lifting restrictions too quickly could lead to a deadly resurgence. 
+The way down can be as dangerous as the w…</t>
+  </si>
+  <si>
+    <t>RT @WHO: "WHO is working with affected countries on strategies for gradually &amp;amp; safely easing restrictions. Imp. factors to consider are tha…</t>
+  </si>
+  <si>
+    <t>RT @WHO: "Unfortunately, this means the government of #DRC will not be able to declare an end to the #Ebola outbreak on Monday, as hoped. B…</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros https://t.co/uyJy1tEFBc</t>
+  </si>
+  <si>
+    <t>@WHO This is w.h.o. It is not the World Health Organization but it is the CHO is China Health Organization.</t>
+  </si>
+  <si>
+    <t>RT @WHO: FACT: #5G mobile networks DO NOT spread #COVID19 
+More: https://t.co/TdKoGmWrIr
+#coronavirus #KnowTheFacts https://t.co/c56tToal…</t>
+  </si>
+  <si>
+    <t>@WHO A big blunder done by WHO,you people had done regional discrimination as ur chief was part of Wuhan viruse,now… https://t.co/ZupVEU7wsM</t>
+  </si>
+  <si>
+    <t>RT @WHO: FACT: #COVID19 IS NOT transmitted through houseflies
+#coronavirus #KnowTheFacts https://t.co/2SxM7Voofv</t>
+  </si>
+  <si>
+    <t>RT @WHO: FACT: Being able to hold your breath for 10 seconds or more without coughing or feeling discomfort DOES NOT mean you are free from…</t>
+  </si>
+  <si>
+    <t>@WHO @DrMikeRyan @DrTedros https://t.co/Gl6BbF6dAQ
+Indians condemn this pointers,as WHO backs 🇨🇳,on #Chinesevirus c… https://t.co/Pm2zZpT4nJ</t>
+  </si>
+  <si>
+    <t>@WHO 
+भारत को सलाह न दे कि  क्या करना हैं।
+ठीक हैं, मुसलमानों ने ही भारतमें 30%से भी ज्यादा केस बढ़ाए हैं और अभी भी… https://t.co/D1TJQYBLKC</t>
+  </si>
+  <si>
+    <t>@WHO</t>
+  </si>
+  <si>
+    <t>RT @WHO: "I support this proposal, and we are working with #CostaRica to finalize the details.
+Poorer countries &amp;amp; fragile economies stand t…</t>
+  </si>
+  <si>
+    <t>RT @WHO: As we mark 100 days since the first case of what we now call #COVID19 now was notified to WHO, here is the timeline of key events…</t>
+  </si>
+  <si>
+    <t>@WHO WHO=Terrorist Organization. Your funding will be gone and hopefully your members imprisoned and executed. Asap.</t>
+  </si>
+  <si>
+    <t>@WHO Chinese wHO</t>
+  </si>
+  <si>
+    <t>RT @WHO: We recommend 30 mins of activity a day for adults &amp;amp; one hour a day for children. If your local guidelines allow it, go outside for…</t>
+  </si>
+  <si>
+    <t>RT @WHO: "Tomorrow marks 100 days since WHO was notified of the first cases of “pneumonia with unknown cause” in #China.
+It’s incredible t…</t>
+  </si>
+  <si>
+    <t>RT @WHO: 6 April 2020: WHO updates advice on the use of masks during #COVID19
+https://t.co/edk93lb48P</t>
+  </si>
+  <si>
+    <t>@WHO 世界的に中立でなければならないWHOが、世界で最も武漢肺炎封じ込めに成功している台湾へ情報提供を拒み、オブザーバーでの参加すら認めない。
+明らかな人種的差別をしているのに、事務局長への批判は黒人差別だと言って、台湾を批判… https://t.co/gxtcjNaBtt</t>
+  </si>
+  <si>
+    <t>@WHO Say sorry to TAIWAN
+https://t.co/ymbtzHSFMf</t>
+  </si>
+  <si>
+    <t>RT @WHO: You can catch #COVID19 no matter how sunny or hot the weather is. Countries with hot weather have reported cases of COVID-19. To p…</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros Say sorry to TAIWAN
+https://t.co/ymbtzHSFMf</t>
+  </si>
+  <si>
+    <t>RT @WHO: 16 Mar 2020: #TogetherAtHome online concert series begins, to promote physical distancing and taking action for global health, pre…</t>
+  </si>
+  <si>
+    <t>RT @WHO: 15 Mar 2020: WHO #COVID19 Mission to #Iraq covers detection and response. #coronavirus
+https://t.co/HlklGbCuhl</t>
+  </si>
+  <si>
+    <t>@WHO @XHNews @nytimes https://t.co/lwtLmy3rD0</t>
+  </si>
+  <si>
+    <t>@WHO Tell us more about prior to Jan 1st. How you hide this under Chinese influence. People were showing symptoms during October 2019.</t>
+  </si>
+  <si>
+    <t>RT @WHO: 13 Mar 2020: WHO launches the #SafeHands Challenge to promote the power of clean hands to fight the #coronavirus.
+https://t.co/ML…</t>
+  </si>
+  <si>
+    <t>@WHO @MSNBC @CNN something is not right here</t>
+  </si>
+  <si>
+    <t>@WHO 
+नमस्ते</t>
+  </si>
+  <si>
+    <t>RT @WHO: 13 Mar 2020: WHO, @unfoundation and partners launch first-of-its-kind #COVID19 Solidarity Response Fund: https://t.co/WV9i5bp2LP…</t>
+  </si>
+  <si>
+    <t>@WHO can fuck off now.</t>
+  </si>
+  <si>
+    <t>@WHO का नाम बदलकर ChineseHealth Organization कर देना चाहिए। क्योंकि #ChineseVirus19 पर इस संस्था ने गलत जानकारी देक… https://t.co/bl01DKGsz1</t>
+  </si>
+  <si>
+    <t>RT @WHOWPRO: You can help protect yourself and others from #COVID19 by being:  
+- Informed 
+- Prepared 
+- Smart 
+- Safe 
+Get more informati…</t>
+  </si>
+  <si>
+    <t>@WHO Every nation should stop funding this corrupt bottom bitch of the ccp. They need to be held accountable as should ccp.</t>
+  </si>
+  <si>
+    <t>RT @WHO: Preliminary investigations conducted by the Chinese authorities have found no clear evidence of human-to-human transmission of the…</t>
+  </si>
+  <si>
+    <t>@WHO 100 days my butt.</t>
+  </si>
+  <si>
+    <t>@WHO I SRINIVAS 919848094641 from Hyderabad India is accepting the challenge given by WHO to fight against Covid19… https://t.co/UAX1ve01ye</t>
+  </si>
+  <si>
+    <t>@WHO For Tedros that the authorities of government of Taiwan have found evidence that the person who scolded you wa… https://t.co/m2ZywAZ1pk</t>
+  </si>
+  <si>
+    <t>@WHO 
+For Tedros that the authorities of government of Taiwan have found evidence that the person who scolded you… https://t.co/9x91BDAJ28</t>
+  </si>
+  <si>
+    <t>RT @WHO: 5 Jan 2020: WHO publishes first Disease Outbreak News on the new virus. This is a flagship technical publication to the scientific…</t>
+  </si>
+  <si>
+    <t>RT @WHO: Talking to people you know and trust can help — check in on neighbours, family and friends. Listen to music, read a book or play a…</t>
+  </si>
+  <si>
+    <t>@WHO @DrMikeRyan @DrTedros WHO has proved to be a huge failure towards safeguarding humanity against #Chinesevirus… https://t.co/mGN0dJtHaL</t>
+  </si>
+  <si>
+    <t>@WHO @HRPresearch @UNU_IIGH @bmj_latest @WHOWPRO @WHOSEARO @WHOAFRO @WHOEMRO @WHO_Europe @pahowho Thought I'd share… https://t.co/yFwGYpRIXl</t>
+  </si>
+  <si>
+    <t>@WHO https://t.co/fO2LnwHvXe</t>
+  </si>
+  <si>
+    <t>RT @WHO: 📚 A new story book “My Hero is You, How kids can fight COVID-19!” - aimed at children aged 6-11 years old, is released today to he…</t>
+  </si>
+  <si>
+    <t>@WHO @DrTedros https://t.co/fO2LnwHvXe</t>
+  </si>
+  <si>
+    <t>@WHO Excuse me. Who tho FUCK let you think the attack from Taiwan.
+And you guys said that Taiwan is included in P.R… https://t.co/6ffxhA1ZDe</t>
+  </si>
+  <si>
+    <t>@WHO Total budget of @WHO to treat #COVID2019 to only one pathy, why not interest in other pathy #Ayurveda  to save… https://t.co/GpD6Uz3alL</t>
+  </si>
+  <si>
+    <t>@WHO no logra de cohesionar los estudios de diversas universidades del 🌎. Dimes y diretes día a día con el covid-19… https://t.co/EDHhaHlNim</t>
+  </si>
+  <si>
+    <t>@WHO On other scientific pathy.. #WHO role ..
+@WHO =neuton 
+#Think about #ayurveda ,save the world ,save #humanity… https://t.co/0ErqM9ybO9</t>
+  </si>
+  <si>
+    <t>@WHO Did you forget this? https://t.co/vGTCSUjzRf</t>
+  </si>
+  <si>
+    <t>RT @WHO: To alleviate suffering &amp;amp; save lives, WHO is: 
+-Supporting countries to prepare &amp;amp; respond
+-Providing accurate information &amp;amp; fight…</t>
+  </si>
+  <si>
+    <t>@WHO @WHOThailand @WHOSEARO @WHOWPRO #Chineseplague #PesteChina . #ChineseWHO</t>
+  </si>
+  <si>
+    <t>RT @WHO: So far WHO has:
+-shipped 2M individual items of protective gear to 75 countries that need it most
+-shipped 1.5M laboratory tests t…</t>
+  </si>
+  <si>
+    <t>@WHO World corrupted organisation... 
+And Dr. Trades is also corrupted... 
+#chinaVirusMadeInChina</t>
+  </si>
+  <si>
+    <t>@WHO while you're working closely with the virus, don't get addicted to social media. Spend your time wisely on what's to be done.</t>
+  </si>
+  <si>
     <t>@WHO is as guilty as #China un spreading the #ChineseVirus (also known as #Covid_19 and #Corona because it partnere… https://t.co/Mxy5pekDLQ</t>
   </si>
   <si>
     <t>@WHO said it the #USA is politicizing this virus and it will be deadly however the lunatic @realDonaldTrump at the… https://t.co/dPaDX7m5Nh</t>
   </si>
   <si>
-    <t>RT @WHO: As we mark 100 days since the first case of what we now call #COVID19 now was notified to WHO, here is the timeline of key events…</t>
-  </si>
-  <si>
     <t>@WHO why #WHO silent on other pathy... is #WHO feed by pharmacy company.... why so much confusion??</t>
   </si>
   <si>
@@ -56,12 +268,6 @@
   </si>
   <si>
     <t>RT @WHO: "Our singular focus is on working to serve all people to save lives and stop the #COVID19 pandemic – stop this dangerous enemy"-@D…</t>
-  </si>
-  <si>
-    <t>RT @WHO: Preliminary investigations conducted by the Chinese authorities have found no clear evidence of human-to-human transmission of the…</t>
-  </si>
-  <si>
-    <t>RT @WHO: 📚 A new story book “My Hero is You, How kids can fight COVID-19!” - aimed at children aged 6-11 years old, is released today to he…</t>
   </si>
   <si>
     <t>@WHO When will you mark the anniversary in which China bought you? #WHOLiedPeopleDied</t>
@@ -116,9 +322,6 @@
     <t>@WHO Biggest event: WHO lied to the world that funds them. #ByeWHO</t>
   </si>
   <si>
-    <t>RT @WHO: You can catch #COVID19 no matter how sunny or hot the weather is. Countries with hot weather have reported cases of COVID-19. To p…</t>
-  </si>
-  <si>
     <t>@WHO SUCKS &amp;amp; is guilty of BS for the #ChineseVirus</t>
   </si>
   <si>
@@ -128,6 +331,165 @@
     <t>@WHO Propaganda to make @WHO look like they did their job. Shame on YOU</t>
   </si>
   <si>
+    <t>ShineOfColors</t>
+  </si>
+  <si>
+    <t>mariasstories</t>
+  </si>
+  <si>
+    <t>SkindogC</t>
+  </si>
+  <si>
+    <t>claujisan</t>
+  </si>
+  <si>
+    <t>NiliMajumder</t>
+  </si>
+  <si>
+    <t>TouatiAmine06</t>
+  </si>
+  <si>
+    <t>BABLOOPASWAN8</t>
+  </si>
+  <si>
+    <t>NagalingamGuna1</t>
+  </si>
+  <si>
+    <t>cloudy1253</t>
+  </si>
+  <si>
+    <t>SaatySanatan</t>
+  </si>
+  <si>
+    <t>Divyesh28021998</t>
+  </si>
+  <si>
+    <t>rahulshukla5858</t>
+  </si>
+  <si>
+    <t>MiriamCronkhite</t>
+  </si>
+  <si>
+    <t>DhillonPPS</t>
+  </si>
+  <si>
+    <t>JackDor06668830</t>
+  </si>
+  <si>
+    <t>gupta_sonu</t>
+  </si>
+  <si>
+    <t>gewig</t>
+  </si>
+  <si>
+    <t>ArielBlocker</t>
+  </si>
+  <si>
+    <t>jorgeevictoria</t>
+  </si>
+  <si>
+    <t>theking_anand</t>
+  </si>
+  <si>
+    <t>zOFlwyKDhEHs2jy</t>
+  </si>
+  <si>
+    <t>suNNieSaNi</t>
+  </si>
+  <si>
+    <t>EDPC66</t>
+  </si>
+  <si>
+    <t>happytravl</t>
+  </si>
+  <si>
+    <t>arindam9734</t>
+  </si>
+  <si>
+    <t>Chagri1907</t>
+  </si>
+  <si>
+    <t>dbbeagles</t>
+  </si>
+  <si>
+    <t>HameedHafij</t>
+  </si>
+  <si>
+    <t>Disenfranchis1</t>
+  </si>
+  <si>
+    <t>ShashankAgar23</t>
+  </si>
+  <si>
+    <t>BhartiyRanjit</t>
+  </si>
+  <si>
+    <t>afifahtswn</t>
+  </si>
+  <si>
+    <t>Zach062</t>
+  </si>
+  <si>
+    <t>ItalyinChina</t>
+  </si>
+  <si>
+    <t>MarcusSmarfy</t>
+  </si>
+  <si>
+    <t>DarlaScheuerman</t>
+  </si>
+  <si>
+    <t>SRINIVAAS4</t>
+  </si>
+  <si>
+    <t>HCLai4</t>
+  </si>
+  <si>
+    <t>Fercho13621362</t>
+  </si>
+  <si>
+    <t>Abdulmetin25</t>
+  </si>
+  <si>
+    <t>aryolivans</t>
+  </si>
+  <si>
+    <t>cyclezingg</t>
+  </si>
+  <si>
+    <t>Nowa04451959</t>
+  </si>
+  <si>
+    <t>wildaadrnt</t>
+  </si>
+  <si>
+    <t>MilkTeaChase04</t>
+  </si>
+  <si>
+    <t>ajeydada</t>
+  </si>
+  <si>
+    <t>ABULKASHAM</t>
+  </si>
+  <si>
+    <t>vincenzoalaimoc</t>
+  </si>
+  <si>
+    <t>tracyhutchsgt</t>
+  </si>
+  <si>
+    <t>iamerincruz</t>
+  </si>
+  <si>
+    <t>luckyjumaba</t>
+  </si>
+  <si>
+    <t>Aj96128519</t>
+  </si>
+  <si>
+    <t>izayoi_ami</t>
+  </si>
+  <si>
     <t>vks_27</t>
   </si>
   <si>
@@ -137,9 +499,6 @@
     <t>92Rakesh2</t>
   </si>
   <si>
-    <t>ajeydada</t>
-  </si>
-  <si>
     <t>LuAnnWHNP</t>
   </si>
   <si>
@@ -225,6 +584,213 @@
   </si>
   <si>
     <t>LyndaMarie8888</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 17:07:25 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 17:07:09 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 17:06:51 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 17:06:48 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 17:06:46 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 17:06:42 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 17:06:37 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 17:06:34 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 17:06:33 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 17:06:32 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 04:26:45 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 04:26:44 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 04:26:41 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 04:26:36 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 04:26:26 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 04:26:24 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 04:26:14 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 04:25:50 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 04:25:48 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 04:25:42 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:59:51 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:59:49 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:59:32 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:59:26 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:59:16 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:59:04 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:58:51 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:58:43 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:58:35 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:50:22 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:50:03 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:49:46 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:49:45 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:49:42 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:49:36 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:49:34 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:49:16 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:48:52 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:48:50 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:43:52 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:43:28 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:43:20 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:42:51 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:41:32 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:41:01 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:40:33 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:40:26 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:40:20 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:40:02 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:36:23 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:35:58 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:35:19 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:34:38 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:34:37 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:34:05 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:34:04 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:33:55 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:33:49 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:33:33 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:19:58 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:19:50 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:19:37 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:19:28 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:19:24 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:19:23 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:19:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:18:50 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:18:49 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Apr 10 02:18:39 +0000 2020</t>
   </si>
   <si>
     <t>Fri Apr 10 02:05:05 +0000 2020</t>
@@ -684,7 +1250,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -703,478 +1269,1458 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s">
-        <v>91</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="D30" t="s">
-        <v>94</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="D31" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="D32" t="s">
-        <v>96</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="D33" t="s">
-        <v>97</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="D34" t="s">
-        <v>98</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
       </c>
       <c r="C35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>68</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>67</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>66</v>
+      </c>
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
         <v>65</v>
       </c>
-      <c r="D35" t="s">
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>64</v>
+      </c>
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>63</v>
+      </c>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>62</v>
+      </c>
+      <c r="B43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>61</v>
+      </c>
+      <c r="B44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" t="s">
+        <v>121</v>
+      </c>
+      <c r="D44" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>60</v>
+      </c>
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>59</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>58</v>
+      </c>
+      <c r="B47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>57</v>
+      </c>
+      <c r="B48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>56</v>
+      </c>
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>55</v>
+      </c>
+      <c r="B50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" t="s">
+        <v>127</v>
+      </c>
+      <c r="D50" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" t="s">
+        <v>128</v>
+      </c>
+      <c r="D52" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" t="s">
+        <v>130</v>
+      </c>
+      <c r="D54" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>50</v>
+      </c>
+      <c r="B55" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" t="s">
         <v>99</v>
+      </c>
+      <c r="D55" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>49</v>
+      </c>
+      <c r="B56" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" t="s">
+        <v>131</v>
+      </c>
+      <c r="D56" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>48</v>
+      </c>
+      <c r="B57" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>47</v>
+      </c>
+      <c r="B58" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>46</v>
+      </c>
+      <c r="B59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" t="s">
+        <v>132</v>
+      </c>
+      <c r="D59" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>45</v>
+      </c>
+      <c r="B60" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>44</v>
+      </c>
+      <c r="B61" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" t="s">
+        <v>132</v>
+      </c>
+      <c r="D61" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>43</v>
+      </c>
+      <c r="B62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" t="s">
+        <v>135</v>
+      </c>
+      <c r="D62" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>42</v>
+      </c>
+      <c r="B63" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" t="s">
+        <v>136</v>
+      </c>
+      <c r="D63" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>41</v>
+      </c>
+      <c r="B64" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" t="s">
+        <v>137</v>
+      </c>
+      <c r="D64" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>40</v>
+      </c>
+      <c r="B65" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" t="s">
+        <v>135</v>
+      </c>
+      <c r="D65" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
+        <v>39</v>
+      </c>
+      <c r="B66" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>38</v>
+      </c>
+      <c r="B67" t="s">
+        <v>59</v>
+      </c>
+      <c r="C67" t="s">
+        <v>139</v>
+      </c>
+      <c r="D67" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>37</v>
+      </c>
+      <c r="B68" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" t="s">
+        <v>140</v>
+      </c>
+      <c r="D68" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
+        <v>36</v>
+      </c>
+      <c r="B69" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69" t="s">
+        <v>139</v>
+      </c>
+      <c r="D69" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
+        <v>35</v>
+      </c>
+      <c r="B70" t="s">
+        <v>62</v>
+      </c>
+      <c r="C70" t="s">
+        <v>141</v>
+      </c>
+      <c r="D70" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>34</v>
+      </c>
+      <c r="B71" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71" t="s">
+        <v>142</v>
+      </c>
+      <c r="D71" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>33</v>
+      </c>
+      <c r="B72" t="s">
+        <v>64</v>
+      </c>
+      <c r="C72" t="s">
+        <v>143</v>
+      </c>
+      <c r="D72" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>32</v>
+      </c>
+      <c r="B73" t="s">
+        <v>65</v>
+      </c>
+      <c r="C73" t="s">
+        <v>144</v>
+      </c>
+      <c r="D73" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
+        <v>31</v>
+      </c>
+      <c r="B74" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" t="s">
+        <v>145</v>
+      </c>
+      <c r="D74" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
+        <v>30</v>
+      </c>
+      <c r="B75" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" t="s">
+        <v>135</v>
+      </c>
+      <c r="D75" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
+        <v>29</v>
+      </c>
+      <c r="B76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C76" t="s">
+        <v>146</v>
+      </c>
+      <c r="D76" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1">
+        <v>28</v>
+      </c>
+      <c r="B77" t="s">
+        <v>68</v>
+      </c>
+      <c r="C77" t="s">
+        <v>147</v>
+      </c>
+      <c r="D77" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1">
+        <v>27</v>
+      </c>
+      <c r="B78" t="s">
+        <v>69</v>
+      </c>
+      <c r="C78" t="s">
+        <v>148</v>
+      </c>
+      <c r="D78" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
+        <v>26</v>
+      </c>
+      <c r="B79" t="s">
+        <v>70</v>
+      </c>
+      <c r="C79" t="s">
+        <v>149</v>
+      </c>
+      <c r="D79" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
+        <v>25</v>
+      </c>
+      <c r="B80" t="s">
+        <v>71</v>
+      </c>
+      <c r="C80" t="s">
+        <v>150</v>
+      </c>
+      <c r="D80" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
+        <v>24</v>
+      </c>
+      <c r="B81" t="s">
+        <v>72</v>
+      </c>
+      <c r="C81" t="s">
+        <v>151</v>
+      </c>
+      <c r="D81" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
+        <v>23</v>
+      </c>
+      <c r="B82" t="s">
+        <v>73</v>
+      </c>
+      <c r="C82" t="s">
+        <v>152</v>
+      </c>
+      <c r="D82" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
+        <v>22</v>
+      </c>
+      <c r="B83" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83" t="s">
+        <v>153</v>
+      </c>
+      <c r="D83" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
+        <v>21</v>
+      </c>
+      <c r="B84" t="s">
+        <v>42</v>
+      </c>
+      <c r="C84" t="s">
+        <v>154</v>
+      </c>
+      <c r="D84" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
+        <v>20</v>
+      </c>
+      <c r="B85" t="s">
+        <v>52</v>
+      </c>
+      <c r="C85" t="s">
+        <v>155</v>
+      </c>
+      <c r="D85" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
+        <v>19</v>
+      </c>
+      <c r="B86" t="s">
+        <v>74</v>
+      </c>
+      <c r="C86" t="s">
+        <v>156</v>
+      </c>
+      <c r="D86" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
+        <v>18</v>
+      </c>
+      <c r="B87" t="s">
+        <v>75</v>
+      </c>
+      <c r="C87" t="s">
+        <v>157</v>
+      </c>
+      <c r="D87" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
+        <v>17</v>
+      </c>
+      <c r="B88" t="s">
+        <v>76</v>
+      </c>
+      <c r="C88" t="s">
+        <v>158</v>
+      </c>
+      <c r="D88" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
+        <v>16</v>
+      </c>
+      <c r="B89" t="s">
+        <v>77</v>
+      </c>
+      <c r="C89" t="s">
+        <v>159</v>
+      </c>
+      <c r="D89" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
+        <v>15</v>
+      </c>
+      <c r="B90" t="s">
+        <v>78</v>
+      </c>
+      <c r="C90" t="s">
+        <v>160</v>
+      </c>
+      <c r="D90" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
+        <v>14</v>
+      </c>
+      <c r="B91" t="s">
+        <v>79</v>
+      </c>
+      <c r="C91" t="s">
+        <v>161</v>
+      </c>
+      <c r="D91" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
+        <v>13</v>
+      </c>
+      <c r="B92" t="s">
+        <v>78</v>
+      </c>
+      <c r="C92" t="s">
+        <v>162</v>
+      </c>
+      <c r="D92" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1">
+        <v>12</v>
+      </c>
+      <c r="B93" t="s">
+        <v>20</v>
+      </c>
+      <c r="C93" t="s">
+        <v>163</v>
+      </c>
+      <c r="D93" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1">
+        <v>11</v>
+      </c>
+      <c r="B94" t="s">
+        <v>80</v>
+      </c>
+      <c r="C94" t="s">
+        <v>164</v>
+      </c>
+      <c r="D94" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1">
+        <v>10</v>
+      </c>
+      <c r="B95" t="s">
+        <v>81</v>
+      </c>
+      <c r="C95" t="s">
+        <v>165</v>
+      </c>
+      <c r="D95" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
+        <v>9</v>
+      </c>
+      <c r="B96" t="s">
+        <v>42</v>
+      </c>
+      <c r="C96" t="s">
+        <v>166</v>
+      </c>
+      <c r="D96" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1">
+        <v>8</v>
+      </c>
+      <c r="B97" t="s">
+        <v>82</v>
+      </c>
+      <c r="C97" t="s">
+        <v>167</v>
+      </c>
+      <c r="D97" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1">
+        <v>7</v>
+      </c>
+      <c r="B98" t="s">
+        <v>83</v>
+      </c>
+      <c r="C98" t="s">
+        <v>168</v>
+      </c>
+      <c r="D98" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1">
+        <v>6</v>
+      </c>
+      <c r="B99" t="s">
+        <v>84</v>
+      </c>
+      <c r="C99" t="s">
+        <v>169</v>
+      </c>
+      <c r="D99" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1">
+        <v>5</v>
+      </c>
+      <c r="B100" t="s">
+        <v>85</v>
+      </c>
+      <c r="C100" t="s">
+        <v>170</v>
+      </c>
+      <c r="D100" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1">
+        <v>4</v>
+      </c>
+      <c r="B101" t="s">
+        <v>86</v>
+      </c>
+      <c r="C101" t="s">
+        <v>171</v>
+      </c>
+      <c r="D101" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1">
+        <v>3</v>
+      </c>
+      <c r="B102" t="s">
+        <v>28</v>
+      </c>
+      <c r="C102" t="s">
+        <v>169</v>
+      </c>
+      <c r="D102" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1">
+        <v>2</v>
+      </c>
+      <c r="B103" t="s">
+        <v>87</v>
+      </c>
+      <c r="C103" t="s">
+        <v>172</v>
+      </c>
+      <c r="D103" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1">
+        <v>1</v>
+      </c>
+      <c r="B104" t="s">
+        <v>88</v>
+      </c>
+      <c r="C104" t="s">
+        <v>173</v>
+      </c>
+      <c r="D104" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>89</v>
+      </c>
+      <c r="C105" t="s">
+        <v>174</v>
+      </c>
+      <c r="D105" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
